--- a/Embedded_linux.xlsx
+++ b/Embedded_linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EmbeddedLinux_PlayerGround\EmbeddedLinux_PlayerGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540AA0B6-C3D2-45C6-BDA4-D8098153294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A451FD5-1F26-4544-A08E-06AC5C377A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting kernel module" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Jetson b01 pinout" sheetId="6" r:id="rId4"/>
     <sheet name="Function" sheetId="7" r:id="rId5"/>
     <sheet name="Note" sheetId="5" r:id="rId6"/>
-    <sheet name="Helloworld module" sheetId="1" r:id="rId7"/>
+    <sheet name="DEVICE FILE" sheetId="8" r:id="rId7"/>
+    <sheet name="CHARACTER DEVICE DRIVER" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>sudo apt update</t>
   </si>
@@ -260,81 +261,6 @@
     <t>Extent cmd</t>
   </si>
   <si>
-    <t>#include&lt;linux/module.h&gt;</t>
-  </si>
-  <si>
-    <t>#include&lt;linux/init.h&gt;</t>
-  </si>
-  <si>
-    <t>int my_init(void){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        printk("This is init CB function\n");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return 0;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>void my_exit(void){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        printk("This is exit CB function\n");</t>
-  </si>
-  <si>
-    <t>module_init(my_init);</t>
-  </si>
-  <si>
-    <t>module_exit(my_exit);</t>
-  </si>
-  <si>
-    <t>MODULE_LICENSE("GPL");</t>
-  </si>
-  <si>
-    <t>hello.c</t>
-  </si>
-  <si>
-    <t>Makefile</t>
-  </si>
-  <si>
-    <t>obj-m += hello.o</t>
-  </si>
-  <si>
-    <t>all:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        make -C /lib/modules/$(shell uname -r)/build M=$(PWD) modules</t>
-  </si>
-  <si>
-    <t>clean:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        make -C /lib/modules/$(shell uname -r)/build M=$(PWD) clean</t>
-  </si>
-  <si>
-    <t>Excute:</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to insert hello.ko</t>
-  </si>
-  <si>
-    <t>sudo insmod hello.ko</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to check log</t>
-  </si>
-  <si>
-    <t>sudo rmmod hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to remove module</t>
-  </si>
-  <si>
     <t>sudo apt install gpiod libgpiod-dev</t>
   </si>
   <si>
@@ -366,9 +292,6 @@
   </si>
   <si>
     <t>dtc -I dtb -O dts -o &lt;output file&gt; /boot/dtb/kernel_tegra210-p3448-0000-p3449-0000-b00.dtb</t>
-  </si>
-  <si>
-    <t>Check device treen file(.dtb)</t>
   </si>
   <si>
     <t>sudo busybox devmem &lt;hw address&gt; 32</t>
@@ -452,6 +375,12 @@
   </si>
   <si>
     <t>ioread32(addr)/iowrite32(val, addr)</t>
+  </si>
+  <si>
+    <t>Check device tree file(.dtb)</t>
+  </si>
+  <si>
+    <t>Every object(device, app,…) in Linux are represented by corresponding file</t>
   </si>
 </sst>
 </file>
@@ -635,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,28 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -677,17 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -695,6 +593,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -705,9 +622,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,31 +1317,31 @@
     </row>
     <row r="17" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1527,690 +1455,695 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875EFAE1-A650-4412-BD4E-6E47CBBFC982}">
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" style="5"/>
+    <col min="2" max="2" width="3.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+    <col min="5" max="14" width="9.140625" style="4"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="28" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="20" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="6"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="6"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="6"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="6"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="6"/>
+      <c r="C9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="6"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="5"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="20"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D35:I35"/>
@@ -2227,36 +2160,31 @@
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2282,497 +2210,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C8069C-E5A7-4AB7-B7ED-55DB8C118956}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9.140625" style="5"/>
+    <col min="4" max="16" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
     <mergeCell ref="D22:P22"/>
     <mergeCell ref="D11:P11"/>
     <mergeCell ref="D12:P12"/>
@@ -2780,16 +2708,16 @@
     <mergeCell ref="D14:P14"/>
     <mergeCell ref="D15:P15"/>
     <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2800,266 +2728,288 @@
   <dimension ref="D1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="16"/>
+    <col min="6" max="10" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="E6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="F25:J25"/>
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="Q24:U24"/>
@@ -3069,173 +3019,46 @@
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A5B49-B22C-47C2-9E44-5AE8D4ED0AC4}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s">
-        <v>73</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAC6EF-1688-4675-AE98-67DA2919C0F4}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Embedded_linux.xlsx
+++ b/Embedded_linux.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EmbeddedLinux_PlayerGround\EmbeddedLinux_PlayerGround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\EmbeddedLinux\EmbeddedLinux_PlayerGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A451FD5-1F26-4544-A08E-06AC5C377A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F09EDF-0390-4D5F-84E4-CE11979EBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting kernel module" sheetId="3" r:id="rId1"/>
-    <sheet name="Git install" sheetId="2" r:id="rId2"/>
+    <sheet name="Common cmd" sheetId="2" r:id="rId2"/>
     <sheet name="Regular use command" sheetId="4" r:id="rId3"/>
     <sheet name="Jetson b01 pinout" sheetId="6" r:id="rId4"/>
     <sheet name="Function" sheetId="7" r:id="rId5"/>
     <sheet name="Note" sheetId="5" r:id="rId6"/>
-    <sheet name="DEVICE FILE" sheetId="8" r:id="rId7"/>
-    <sheet name="CHARACTER DEVICE DRIVER" sheetId="9" r:id="rId8"/>
+    <sheet name="DEVICE FILE(DEVICE NODE)" sheetId="8" r:id="rId7"/>
+    <sheet name="Interupt(event)" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t>sudo apt update</t>
   </si>
@@ -339,9 +342,6 @@
     <t>sudo cat /proc/iomem | grep -i &lt;driver&gt;</t>
   </si>
   <si>
-    <t>Check range of driver in memory</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Check the </t>
     </r>
@@ -382,12 +382,561 @@
   <si>
     <t>Every object(device, app,…) in Linux are represented by corresponding file</t>
   </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Check device status</t>
+  </si>
+  <si>
+    <t>nmcli device status</t>
+  </si>
+  <si>
+    <t>nmcli connection show --active</t>
+  </si>
+  <si>
+    <t>Check the connected wifi</t>
+  </si>
+  <si>
+    <t>nmcli device wifi list</t>
+  </si>
+  <si>
+    <t>List available wifi network</t>
+  </si>
+  <si>
+    <t>nmcli device wifi connect "Your_SSID" password "Your_PASSWORD"</t>
+  </si>
+  <si>
+    <t>Connect to wifi</t>
+  </si>
+  <si>
+    <t>nmcli device disconnect wlan0</t>
+  </si>
+  <si>
+    <t>Disconnect current wlan0</t>
+  </si>
+  <si>
+    <t>sudo nmcli connection delete "Your_SSID"</t>
+  </si>
+  <si>
+    <t>Forget the connection</t>
+  </si>
+  <si>
+    <t>ip addr show eth0</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Eth</t>
+  </si>
+  <si>
+    <t>Check eth0 info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw-rw----</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw-rw----</t>
+    </r>
+  </si>
+  <si>
+    <t>Defination</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>E.g</t>
+  </si>
+  <si>
+    <t>Device number</t>
+  </si>
+  <si>
+    <t>Major device number</t>
+  </si>
+  <si>
+    <t>Minor device number</t>
+  </si>
+  <si>
+    <t>Interact follow block concept</t>
+  </si>
+  <si>
+    <t>Interact follow character concept</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Locate at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/dev/ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw-rw---- 1 root disk 179, 0 Thg 1 29 22:25 /dev/mmcblk0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rw--w---- 1 root tty 4, 64 Thg 1 29 22:25 /dev/ttyS0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a number identity of device, there are 2 type of device file number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 3 type of device file: </t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Virture</t>
+  </si>
+  <si>
+    <t>Only for Linux interface not Hardware</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>The device file doesn't contain the the driver code, It only help the OS pointer to exactly driver</t>
+  </si>
+  <si>
+    <t>(open, read, write, ioctl)</t>
+  </si>
+  <si>
+    <t>system calls</t>
+  </si>
+  <si>
+    <t>(open/read/write dispatch)</t>
+  </si>
+  <si>
+    <t>maps file to driver</t>
+  </si>
+  <si>
+    <t>(character/block file)</t>
+  </si>
+  <si>
+    <t>driver ops</t>
+  </si>
+  <si>
+    <t>(kernel module)</t>
+  </si>
+  <si>
+    <t>User → App → Syscall → VFS → Device File (/dev/...) → Driver → Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mknod &lt;filename&gt; &lt;type&gt; &lt;major&gt; &lt;minor&gt; </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo mknod myserial c &lt;major of ttyS0&gt; &lt;minor of ttyS0&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sudo screen myserial &lt;baud_rate&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to send data to PC</t>
+    </r>
+  </si>
+  <si>
+    <t>Represent for divice number</t>
+  </si>
+  <si>
+    <t>For which driver control this device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Can not access mutual resource of 2 layer user space and kernel. Use the API to do that</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Device file is a file which represent the hw device(So in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux file = hardware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+Device file mean, The user space (app) can only access the hw through device file, device file will link to corresponding device driver to control the hw layer</t>
+    </r>
+  </si>
+  <si>
+    <t>First method to create the device file</t>
+  </si>
+  <si>
+    <t>#include &lt;linux/module.h&gt;
+#include &lt;linux/fs.h&gt;
+#include &lt;linux/cdev.h&gt;
+#include &lt;linux/device.h&gt;
+static dev_t dev;
+static struct cdev my_cdev;
+static struct class *cls;
+static int my_open(struct inode *i, struct file *f) { return 0; }
+static int my_close(struct inode *i, struct file *f) { return 0; }
+static ssize_t my_read(struct file *f, char __user *buf, size_t len, loff_t *off) { return 0; }
+static ssize_t my_write(struct file *f, const char __user *buf, size_t len, loff_t *off) { return len; }
+static struct file_operations fops = {
+    .open = my_open,
+    .release = my_close,
+    .read = my_read,
+    .write = my_write,
+};
+static int __init my_init(void)
+{
+    alloc_chrdev_region(&amp;dev, 0, 1, "mydev");
+    cdev_init(&amp;my_cdev, &amp;fops);
+    cdev_add(&amp;my_cdev, dev, 1);
+    cls = class_create(THIS_MODULE, "myclass");
+    device_create(cls, NULL, dev, NULL, "mydev");
+    printk(KERN_INFO "Driver loaded. Major=%d Minor=%d\n", MAJOR(dev), MINOR(dev));
+    return 0;
+}
+static void __exit my_exit(void)
+{
+    device_destroy(cls, dev);
+    class_destroy(cls);
+    cdev_del(&amp;my_cdev);
+    unregister_chrdev_region(dev, 1);
+    printk(KERN_INFO "Driver unloaded\n");
+}
+module_init(my_init);
+module_exit(my_exit);
+MODULE_LICENSE("GPL");</t>
+  </si>
+  <si>
+    <t>Check physical base address of peripheral</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample driver code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Driver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample driver code
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application</t>
+    </r>
+  </si>
+  <si>
+    <t>Use in</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>module_init(my_init);
+module_exit(my_exit);</t>
+  </si>
+  <si>
+    <t>Use for registing kernel module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> printk(&lt;message&gt;);</t>
+  </si>
+  <si>
+    <t>Use to printf kernel log</t>
+  </si>
+  <si>
+    <t>cdev_init(&amp;my_cdev, &amp;fops);</t>
+  </si>
+  <si>
+    <t>cdev_add(&amp;my_cdev, dev, 1);</t>
+  </si>
+  <si>
+    <t>cls = class_create(THIS_MODULE, "myclass");</t>
+  </si>
+  <si>
+    <t>device_create(cls, NULL, dev, NULL, "mydev");</t>
+  </si>
+  <si>
+    <t>alloc_chrdev_region(&amp;dev, 0, 1, &lt;device name&gt;);</t>
+  </si>
+  <si>
+    <t>register the major and minor number, store in dev</t>
+  </si>
+  <si>
+    <t>register the device file and interface function</t>
+  </si>
+  <si>
+    <t>Add the device file to kernel</t>
+  </si>
+  <si>
+    <t>Create the module class</t>
+  </si>
+  <si>
+    <t>Create the device class</t>
+  </si>
+  <si>
+    <t>device_destroy(cls, dev);</t>
+  </si>
+  <si>
+    <t>class_destroy(cls);</t>
+  </si>
+  <si>
+    <t>cdev_del(&amp;my_cdev);</t>
+  </si>
+  <si>
+    <t>unregister_chrdev_region(dev, 1);</t>
+  </si>
+  <si>
+    <t>Destroy the device class and major and minor number</t>
+  </si>
+  <si>
+    <t>Same above</t>
+  </si>
+  <si>
+    <t>Delete the device file out of kernel</t>
+  </si>
+  <si>
+    <t>unregister from kernel</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>open(…)</t>
+  </si>
+  <si>
+    <t>read(…)</t>
+  </si>
+  <si>
+    <t>write(…)</t>
+  </si>
+  <si>
+    <t>close(…)</t>
+  </si>
+  <si>
+    <t>ioctl(…)</t>
+  </si>
+  <si>
+    <t>Open the file (call the open API function if open the device file)</t>
+  </si>
+  <si>
+    <t>Read the file (call the read API function if read the device file)</t>
+  </si>
+  <si>
+    <t>Write the file (call the write API function if read the device file)</t>
+  </si>
+  <si>
+    <t>Close the file (call the close API function if close the device file)</t>
+  </si>
+  <si>
+    <t>Call the ioctl API function and inject the command to that function</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#include &lt;fcntl.h&gt;
+#include &lt;unistd.h&gt;
+#include &lt;string.h&gt;
+int main(int num_arg , char**arg){
+  int fd = open("/dev/mydev", O_RDWR);
+  printf("Num of arg: %d\n", num_arg);
+  if (fd &lt; 0) {
+    printf("Fail to open device file\n");
+    perror("open");
+    return -1;
+  }
+  if(num_arg &gt; 1){
+    if(strcmp(arg[1], "on") == 0){
+      printf("Turn on LED\n");
+      write(fd, "1", 1);
+    }
+    else{
+      printf("Turn off LED\n");
+      write(fd, "0", 1);
+    }  
+  }
+  else{
+    while(1){
+      printf("Turn on LED\n");
+      write(fd, "1", 1);
+      usleep(300 * 1000);
+      printf("Turn off LED\n");
+      write(fd, "0", 1);
+      usleep(300 * 1000);
+    }
+  }
+  close(fd);
+  return 0;
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +973,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +1015,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -595,14 +1157,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -611,6 +1170,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,6 +1204,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,6 +1610,876 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4354</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0691D867-FC23-41F3-8A0A-1198B0B5115E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3483428" y="1301932"/>
+          <a:ext cx="2634343" cy="147304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11871</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2482644</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0F26EB-72AD-4174-8D65-D6FE13506C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3472826" y="1469240"/>
+          <a:ext cx="2470773" cy="154745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161797</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>528943</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A4DF60-7BA5-44E3-8E98-133A3527CC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17390617" y="2031769"/>
+          <a:ext cx="748146" cy="490450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>APP</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553127</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9498B5E-F0AA-42CB-A705-9C999DFC0E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13376201" y="3125405"/>
+          <a:ext cx="748146" cy="490450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Driver</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>49213</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D08572-D5BC-4589-B628-5291ED865EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13274040" y="2046014"/>
+          <a:ext cx="955993" cy="490450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Device</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> File</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dev/xxx</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179054</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180817</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D72FEB-90B6-4D2F-A91E-06F2E68D0376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13750274" y="2536464"/>
+          <a:ext cx="1763" cy="588941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>49213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489457</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928201A5-9878-4DCA-BF4E-5A0331BD7FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230033" y="2291239"/>
+          <a:ext cx="1659444" cy="995"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFFD8CE-553C-4A6B-936F-DF325FFCC9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13376200" y="4066309"/>
+          <a:ext cx="748146" cy="490451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hardware</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179053</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179054</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479B9AE7-BCA0-4164-AADE-1764572DC802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13750273" y="3615855"/>
+          <a:ext cx="1" cy="450454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>162791</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>529937</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54234FA8-0874-47F0-9D67-F715AC5E9410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17391611" y="1182635"/>
+          <a:ext cx="748146" cy="487800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154870</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705C54D6-BEA1-4812-BA9D-9CCAA7BA7103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17764690" y="1670435"/>
+          <a:ext cx="994" cy="361334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489457</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18403</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE17EDE0-7BEF-41B4-9314-D5C76EBD405A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15889477" y="2047009"/>
+          <a:ext cx="748146" cy="490450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kernel</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>VFS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18403</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161797</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E31E8C-B405-4EEF-9211-069A2DD73130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16637623" y="2276994"/>
+          <a:ext cx="752994" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4354</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C06829-DB86-4A14-A11F-2C6C2C0F698C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8510451" y="2216332"/>
+          <a:ext cx="2337163" cy="147304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11871</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2482644</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41E7210-CCBF-40AC-A7CE-7BE4806AC3CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8500551" y="2391506"/>
+          <a:ext cx="2341233" cy="154745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1248,18 +2749,18 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1270,17 +2771,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +2795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1302,12 +2803,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -1315,12 +2816,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1328,7 +2829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +2837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1353,98 +2854,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1355A7-28C2-430D-B1A0-86B79E8B3C8A}">
-  <dimension ref="A4:C25"/>
+  <dimension ref="A3:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,665 +3147,720 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875EFAE1-A650-4412-BD4E-6E47CBBFC982}">
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
+    <col min="5" max="14" width="9.109375" style="4"/>
+    <col min="15" max="15" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="18" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="18" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="18" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="18" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="18" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="18" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="18" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="18" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="5"/>
       <c r="R29" s="8"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="20"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="25"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D2:I2"/>
@@ -2130,61 +3877,6 @@
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2195,11 +3887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7FD2-A3EA-4EB1-A52D-CEA50608CC5E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AN59" sqref="AN59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2210,497 +3902,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C8069C-E5A7-4AB7-B7ED-55DB8C118956}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9.140625" style="4"/>
+    <col min="2" max="2" width="39.21875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="56"/>
+    <col min="4" max="9" width="9.109375" style="19"/>
+    <col min="10" max="16" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
     <mergeCell ref="D22:P22"/>
     <mergeCell ref="D11:P11"/>
     <mergeCell ref="D12:P12"/>
@@ -2713,11 +4504,16 @@
     <mergeCell ref="D19:P19"/>
     <mergeCell ref="D20:P20"/>
     <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2727,277 +4523,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F1A0A8-45E7-4596-A934-515958E9418B}">
   <dimension ref="D1:U26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="9"/>
+    <col min="5" max="5" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
@@ -3010,15 +4813,12 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3029,36 +4829,629 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.88671875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="M5" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="P14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="L19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AAC6EF-1688-4675-AE98-67DA2919C0F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EE4340-9636-4844-92C9-6899AE8C4A53}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Embedded_linux.xlsx
+++ b/Embedded_linux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\EmbeddedLinux\EmbeddedLinux_PlayerGround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EmbeddedLinux_PlayerGround\EmbeddedLinux_PlayerGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F09EDF-0390-4D5F-84E4-CE11979EBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B44FE-D39A-4688-8A7C-42C619B3653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting kernel module" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Note" sheetId="5" r:id="rId6"/>
     <sheet name="DEVICE FILE(DEVICE NODE)" sheetId="8" r:id="rId7"/>
     <sheet name="Interupt(event)" sheetId="10" r:id="rId8"/>
+    <sheet name="Process" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
   <si>
     <t>sudo apt update</t>
   </si>
@@ -129,76 +131,10 @@
     <t>The header must like above</t>
   </si>
   <si>
-    <t>Install the toolchain</t>
-  </si>
-  <si>
     <t>https://docs.nvidia.com/jetson/archives/r35.1/DeveloperGuide/text/AT/JetsonLinuxToolchain.html</t>
   </si>
   <si>
     <t>Check in the link:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wget</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to install toolchain throught the http link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attract the zip file: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tar xf aarch64--glibc--stable-2022.08-1.tar.bz2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>export</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> CROSS_COMPILE=&lt;extracted toolchain folder&gt;/aarch64--glibc--stable-2022.08-1/bin/aarch64-buildroot-linux-gnu-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Check by </t>
@@ -802,9 +738,6 @@
     <t>Use for registing kernel module</t>
   </si>
   <si>
-    <t xml:space="preserve"> printk(&lt;message&gt;);</t>
-  </si>
-  <si>
     <t>Use to printf kernel log</t>
   </si>
   <si>
@@ -931,12 +864,586 @@
   return 0;
 }</t>
   </si>
+  <si>
+    <t>gpioinfo</t>
+  </si>
+  <si>
+    <t>Check line number of GPIO pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not use any hang up function in interupt
+</t>
+  </si>
+  <si>
+    <t>Top interupt</t>
+  </si>
+  <si>
+    <t>Bottom interupt</t>
+  </si>
+  <si>
+    <t>Toolchain must be had the same GLIBC version with target_platform</t>
+  </si>
+  <si>
+    <t>gcc-linaro-7.3.1-2018.05-x86_64_aarch64-linux-gnu.tar.xz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> CROSS_COMPILE=&lt;extracted toolchain folder&gt;/&lt;tool_chain&gt;/bin/aarch64-buildroot-linux-gnu-</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.download.nvidia.com/assets/embedded/secure/jetson/GCC/gcc-linaro-7.3.1-2018.05-x86_64_aarch64-linux-gnu.tar.xz?__token__=exp=1762506225~hmac=fe54d65195fd1e78ca52f0b6315e6194e5674db2a1e97e64b9e71f0efa61aaa9&amp;t=eyJscyI6ImdzZW8iLCJsc2QiOiJodHRwczovL3d3dy5nb29nbGUuY29tLyJ9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux_for_Tegra\source\public\</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.nvidia.com/downloads/embedded/l4t/r32_release_v7.6/t210/jetson-210_linux_r32.7.6_aarch64.tbz2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Download packed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public_sources.tbz2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attract the zip file: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xjf public_sources.tbz2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attract the zip file: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xjf kernel_src.tbz2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux_for_Tegra\source\public\kernel\kernel-&lt;version&gt;\</t>
+    </r>
+  </si>
+  <si>
+    <t>make tegra_defconfig
+make modules_prepare</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ARCH=arm64</t>
+    </r>
+  </si>
+  <si>
+    <t>Install the toolchain:</t>
+  </si>
+  <si>
+    <r>
+      <t>Finally, Kernel source will be "….\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux_for_Tegra\source\public\kernel\kernel-&lt;version&gt;\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Every process also have 1 unique ID number which is called</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> process identifier(PID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">So the OS manges all the process by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number</t>
+    </r>
+  </si>
+  <si>
+    <t>Then gen them into file execution(e.g: .exe, .x)</t>
+  </si>
+  <si>
+    <t>Which mean, all the needed lib are merged in executable file, then if the executable file is ran, all the data will be loaded into ram, this occupied RAM is private for this program</t>
+  </si>
+  <si>
+    <t>And can not be access by any process</t>
+  </si>
+  <si>
+    <t># Step 1: Compile source to object file</t>
+  </si>
+  <si>
+    <t># Step 2: Archive into static library</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gcc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -L. -lcalc -o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app_static</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ar rcs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libcalc.a add.o sub.o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gcc -c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add.c sub.c</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Advantages</t>
+  </si>
+  <si>
+    <t>Fast startup (everything embedded in binary)</t>
+  </si>
+  <si>
+    <t>No dependency issues (standalone)</t>
+  </si>
+  <si>
+    <t>Easy to distribute</t>
+  </si>
+  <si>
+    <t>No version mismatch problem</t>
+  </si>
+  <si>
+    <t>❌ Disadvantages</t>
+  </si>
+  <si>
+    <t>Larger executable size</t>
+  </si>
+  <si>
+    <t>Hard to update (must recompile app if library changes)</t>
+  </si>
+  <si>
+    <t>No memory sharing between processes</t>
+  </si>
+  <si>
+    <t>printk(&lt;message&gt;);</t>
+  </si>
+  <si>
+    <t>Dynamic(Share) Library</t>
+  </si>
+  <si>
+    <t>Install the Jetson kernel linux source (to cross compile):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In compile process, the linker </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>copies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all necessary func(or maybe all library) to executable file coding(The file store the main func)</t>
+    </r>
+  </si>
+  <si>
+    <t>The exe file will be smaller than using static lib</t>
+  </si>
+  <si>
+    <t>The lib is public in ram so other process can access to use dynamic lib</t>
+  </si>
+  <si>
+    <t>Create shared library</t>
+  </si>
+  <si>
+    <t>Use shared library</t>
+  </si>
+  <si>
+    <t>(Notify dynamic lib for OS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gcc -fPIC -c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add.c sub.c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gcc -shared -o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libcalc.so add.o sub.o</t>
+    </r>
+  </si>
+  <si>
+    <t>Small executable size</t>
+  </si>
+  <si>
+    <t>Multiple programs share one copy in memory</t>
+  </si>
+  <si>
+    <t>Standard in Linux (used by all system libs)</t>
+  </si>
+  <si>
+    <t>Version conflicts (symbol mismatch)</t>
+  </si>
+  <si>
+    <t>Need library present on target system</t>
+  </si>
+  <si>
+    <t>Slightly slower startup (must load at runtime)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy to update (just replace </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file)</t>
+    </r>
+  </si>
+  <si>
+    <t>Static Library</t>
+  </si>
+  <si>
+    <t>Load to RAM in linker step, So no need to copy into executable file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gcc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -L. -lcal -o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_LIBRARY_PATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=. ./main</t>
+    </r>
+  </si>
+  <si>
+    <t>Module Audio</t>
+  </si>
+  <si>
+    <t>Module Image</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>Audio.a</t>
+  </si>
+  <si>
+    <t>Image.a</t>
+  </si>
+  <si>
+    <t>Final.exe</t>
+  </si>
+  <si>
+    <t>Folder A</t>
+  </si>
+  <si>
+    <t>Folder B</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>src code A</t>
+  </si>
+  <si>
+    <t>src code B</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>object code A</t>
+  </si>
+  <si>
+    <t>object code B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +1486,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1025,7 +1569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1122,11 +1666,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1162,6 +1824,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1205,32 +1923,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1242,34 +1936,54 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2391,67 +3105,2465 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484585</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4354</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169076</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C06829-DB86-4A14-A11F-2C6C2C0F698C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FE9ED7-A6C8-43F7-8293-B5F02F57B0DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8510451" y="2216332"/>
-          <a:ext cx="2337163" cy="147304"/>
+          <a:off x="2317326" y="292894"/>
+          <a:ext cx="2292447" cy="598227"/>
+          <a:chOff x="2319401" y="292894"/>
+          <a:chExt cx="2295212" cy="597881"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEF1B97-C145-4357-BC3D-98B8DE62B66A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2319401" y="292894"/>
+            <a:ext cx="692567" cy="597881"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Lib_A.c</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Lib_B.c</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Arrow: Right 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A17954B-DCCE-4323-9339-26858CE513FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3117557" y="511968"/>
+            <a:ext cx="790199" cy="136923"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468AA643-9528-4DA6-AA79-B97ED44F04D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3997053" y="434577"/>
+            <a:ext cx="617560" cy="261938"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Lib.a</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11871</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14066</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>611198</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2482644</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168811</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13812</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9473FA-9AFD-4D0F-9AC7-2DD12DA99C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1222112" y="2065794"/>
+          <a:ext cx="8307990" cy="3262311"/>
+          <a:chOff x="984097" y="2251199"/>
+          <a:chExt cx="8273861" cy="3262311"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="Group 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B478F168-34CD-4962-9F4B-E7C34DA9D7EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="984097" y="2251199"/>
+            <a:ext cx="8273861" cy="3262311"/>
+            <a:chOff x="2867116" y="2097333"/>
+            <a:chExt cx="8273861" cy="3262311"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Picture 8" descr="🌱 GCC Command for Build Process">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29638CE2-4DBA-4C9A-B11F-A0FA654D2D4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2867116" y="2097333"/>
+              <a:ext cx="4325479" cy="2030014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Rectangle 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDAB855-BD90-41D5-BDC6-A9A3823BAD5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4578412" y="4186876"/>
+              <a:ext cx="1198408" cy="244078"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Run exe file(A.x)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectangle 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01187061-B0DB-4C56-88D8-C41BF9079CBE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8752010" y="4109488"/>
+              <a:ext cx="1782731" cy="1250156"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln w="38100"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>RAM</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="15" name="Group 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB494FC-E74F-4984-9645-9113358B6EF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7625037" y="4085674"/>
+              <a:ext cx="1091256" cy="297656"/>
+              <a:chOff x="5722827" y="4083843"/>
+              <a:chExt cx="1462593" cy="303610"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="Arrow: Right 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7FFADA-72A8-4AB5-BDCD-18EC4A48C1E6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5738811" y="4286250"/>
+                <a:ext cx="1446609" cy="101203"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="TextBox 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BB506F-0E62-4C90-B2EA-8216373EB1DF}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5722827" y="4083843"/>
+                <a:ext cx="1430620" cy="269852"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Load to RAM</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rectangle 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B6E895-5A3C-4F20-8F5C-731FFB760150}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6367097" y="4038050"/>
+              <a:ext cx="1219839" cy="559594"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Create a process A.x</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Arrow: Right 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82758EF7-561E-4B48-8EB3-94C4AF6F4DF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5836354" y="4252363"/>
+              <a:ext cx="506931" cy="125016"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927F2E07-8A97-4AE8-9E9C-C5EB9A014DE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8847259" y="4157112"/>
+              <a:ext cx="1156739" cy="434578"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>A.x</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="19" name="Group 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E27EC8E-E7E0-4B66-8741-FB45D5808455}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7634562" y="4815527"/>
+              <a:ext cx="1091256" cy="297656"/>
+              <a:chOff x="5722827" y="4083843"/>
+              <a:chExt cx="1462593" cy="303610"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="Arrow: Right 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739C9197-D31C-43ED-A844-AFA7C279672A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5738811" y="4286250"/>
+                <a:ext cx="1446609" cy="101203"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="TextBox 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB1B09C-623A-477A-96C4-EFC0739D5BD7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5722827" y="4083843"/>
+                <a:ext cx="1430620" cy="269852"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Load to RAM</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="Rectangle 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E33C37-338D-4E81-BAB2-F9DE81C15752}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6376622" y="4767903"/>
+              <a:ext cx="1219839" cy="559594"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Other process B.x</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88C7656-E2BF-4E1C-BBC5-365C7F096E50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8853213" y="4931019"/>
+              <a:ext cx="1240082" cy="321468"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>B.x</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="Speech Bubble: Oval 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4C2E92-E818-4298-9289-7ED5BB1AAFC1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10196271" y="2831466"/>
+              <a:ext cx="944706" cy="879542"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeEllipseCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -113127"/>
+                <a:gd name="adj2" fmla="val 162661"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Can</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> not access to Lib.a</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Multiplication Sign 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B551F1B4-F0A5-467E-B2D2-13C6C4CB58E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9013947" y="4573831"/>
+              <a:ext cx="936473" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="mathMultiply">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln w="3175"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rectangle 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B477D5-32B3-4238-B770-E18443401ACD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391950" y="4412181"/>
+            <a:ext cx="489072" cy="232172"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Lib.a</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Arrow: Up 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B959AE4-C779-4185-BCA1-C6C0B07863D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7564591" y="4647140"/>
+            <a:ext cx="101203" cy="429639"/>
+          </a:xfrm>
+          <a:prstGeom prst="upArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="Group 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E217672D-92F5-41C1-B3B1-A1DBAA2EC68F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3422375" y="3521410"/>
+            <a:ext cx="1276839" cy="232172"/>
+            <a:chOff x="5444606" y="3378993"/>
+            <a:chExt cx="1274091" cy="232172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Arrow: Curved Right 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271B8A35-DE66-4575-880C-C8940DCB37CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5067685">
+              <a:off x="5773930" y="3070399"/>
+              <a:ext cx="160734" cy="819382"/>
+            </a:xfrm>
+            <a:prstGeom prst="curvedRightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Rectangle 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77538580-EA23-4418-94F8-04A20A749524}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6230541" y="3378993"/>
+              <a:ext cx="488156" cy="232172"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Lib.a</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329182</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120978</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DE5873-08EC-47DF-91B5-D3DD615DF0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3534960" y="9277665"/>
+          <a:ext cx="2292446" cy="598227"/>
+          <a:chOff x="2319401" y="292894"/>
+          <a:chExt cx="2295212" cy="597881"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2CD4BB-6BB6-4EA5-9C67-B56550D8DF56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2319401" y="292894"/>
+            <a:ext cx="692567" cy="597881"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Lib_A.c</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Lib_B.c</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Arrow: Right 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913E7FF4-682E-4FCA-BD17-394421E8C5EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3117557" y="511968"/>
+            <a:ext cx="790199" cy="136923"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="TextBox 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF39D3F4-9B41-4BA7-B755-12BA885A62AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3997053" y="434577"/>
+            <a:ext cx="617560" cy="261938"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Lib.so</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>210740</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>48657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="Group 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E58869-0935-4202-9983-13B50BB73231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1329502" y="10732261"/>
+          <a:ext cx="8655859" cy="3452810"/>
+          <a:chOff x="1722783" y="10866782"/>
+          <a:chExt cx="8683849" cy="3452810"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="70" name="Group 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51CFA43-C537-4685-9440-EBBE798C8BF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1722783" y="10866782"/>
+            <a:ext cx="8683849" cy="3452810"/>
+            <a:chOff x="1739348" y="10850217"/>
+            <a:chExt cx="8683849" cy="3452810"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="44" name="Group 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A08F222-4888-4E9F-BD87-DF4F1D72E250}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1739348" y="10850217"/>
+              <a:ext cx="8683849" cy="3452810"/>
+              <a:chOff x="984097" y="2060700"/>
+              <a:chExt cx="8619137" cy="3452810"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="45" name="Group 44">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C32321-DF1F-48B7-9D76-E92A0CB0BA57}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="984097" y="2060700"/>
+                <a:ext cx="8619137" cy="3452810"/>
+                <a:chOff x="2867116" y="1906834"/>
+                <a:chExt cx="8619137" cy="3452810"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="51" name="Picture 50" descr="🌱 GCC Command for Build Process">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5DF83B-2187-4C41-9FB6-F5DE5704C065}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+                  <a:extLst>
+                    <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                      <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                    </a:ext>
+                  </a:extLst>
+                </a:blip>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr bwMode="auto">
+                <a:xfrm>
+                  <a:off x="2867116" y="2097333"/>
+                  <a:ext cx="4325479" cy="2030014"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:extLst>
+                  <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                    <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a14:hiddenFill>
+                  </a:ext>
+                </a:extLst>
+              </xdr:spPr>
+            </xdr:pic>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="52" name="Rectangle 51">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA381E67-1E20-4C4C-BBA2-AD5D1F698E15}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4578412" y="4186876"/>
+                  <a:ext cx="1198408" cy="244078"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Run exe file(A.x)</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="53" name="Rectangle 52">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA15514-F29A-41E8-B852-85DE424B3D6C}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8752010" y="1906834"/>
+                  <a:ext cx="1782731" cy="3452810"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="38100"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>RAM</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="54" name="Group 53">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B6C054-85B4-4623-9AC5-1BAC88874E45}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="7625037" y="4085674"/>
+                  <a:ext cx="1091256" cy="297656"/>
+                  <a:chOff x="5722827" y="4083843"/>
+                  <a:chExt cx="1462593" cy="303610"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="65" name="Arrow: Right 64">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9AD844-4F44-4D35-ABCB-65A330DD10D9}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5738811" y="4286250"/>
+                    <a:ext cx="1446609" cy="101203"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rightArrow">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent6"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="66" name="TextBox 65">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F7C45F-1BF1-4226-8446-807A7840A264}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5722827" y="4083843"/>
+                    <a:ext cx="1430620" cy="269852"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>Load to RAM</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="55" name="Rectangle 54">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8240E673-AD24-41E6-8919-E03B3023F51B}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="6367097" y="4038050"/>
+                  <a:ext cx="1219839" cy="559594"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Create a process A.x</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="56" name="Arrow: Right 55">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B9B865-10EA-4C89-B783-E48E92FE5FE8}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5836354" y="4252363"/>
+                  <a:ext cx="506931" cy="125016"/>
+                </a:xfrm>
+                <a:prstGeom prst="rightArrow">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="57" name="Rectangle: Rounded Corners 56">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E2E755-8892-4CBE-8ACD-6C2254693B1A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8847258" y="4157112"/>
+                  <a:ext cx="802089" cy="434578"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>A.x</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="58" name="Group 57">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F073EB2-B240-4FE7-9BA2-05598F50BBE3}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="7634562" y="4815527"/>
+                  <a:ext cx="1091256" cy="297656"/>
+                  <a:chOff x="5722827" y="4083843"/>
+                  <a:chExt cx="1462593" cy="303610"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="63" name="Arrow: Right 62">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E388D0D-C406-4655-9057-CC927BD25DEA}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5738811" y="4286250"/>
+                    <a:ext cx="1446609" cy="101203"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rightArrow">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent6"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="64" name="TextBox 63">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AB6E1F-8CB9-47C2-91CD-F336175CB3FE}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5722827" y="4083843"/>
+                    <a:ext cx="1430620" cy="269852"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>Load to RAM</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="59" name="Rectangle 58">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0D812C-B2AB-4781-A239-E5F1CF28E0D5}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="6376622" y="4767903"/>
+                  <a:ext cx="1219839" cy="559594"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Other process B.x</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="60" name="Rectangle: Rounded Corners 59">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A84304E-FDD6-426C-8CD1-919FFE507736}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8853213" y="4814031"/>
+                  <a:ext cx="1322272" cy="422412"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>B.x</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="61" name="Speech Bubble: Oval 60">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125DB8E2-BA60-47F4-A78C-C4AAA3A784ED}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10541547" y="2102596"/>
+                  <a:ext cx="944706" cy="879542"/>
+                </a:xfrm>
+                <a:prstGeom prst="wedgeEllipseCallout">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val -121829"/>
+                    <a:gd name="adj2" fmla="val 172078"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Can</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>  access to Lib.a</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="46" name="Rectangle 45">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18BE758-4438-48D0-B2F9-CB16055FF862}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7383729" y="3567354"/>
+                <a:ext cx="760760" cy="232172"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent4"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent4"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lib.so</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="47" name="Arrow: Up 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D393E340-D664-4B6C-B490-945CED51D64E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7408396" y="3783483"/>
+                <a:ext cx="78423" cy="523013"/>
+              </a:xfrm>
+              <a:prstGeom prst="upArrow">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="50" name="Rectangle 49">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00234EE8-ED1F-4C86-B17D-88204E5CFBE4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4634170" y="3537976"/>
+                <a:ext cx="656950" cy="232172"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent4"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent4"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lib.so</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Arrow: Up 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7C7278-B6B7-43AD-90CD-FF5A26E4468C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8666376" y="12581283"/>
+              <a:ext cx="96625" cy="1173023"/>
+            </a:xfrm>
+            <a:prstGeom prst="upArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Arrow: Right 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28346E0A-D68C-43E8-B5B9-2FFD7686682E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6137412" y="12390782"/>
+            <a:ext cx="2029239" cy="115957"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="Arrow: Curved Down 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6458F24-F82E-4ECB-95AD-2AEB5A74857D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20988835">
+            <a:off x="4243200" y="12068381"/>
+            <a:ext cx="1753391" cy="377401"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedDownArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 25000"/>
+              <a:gd name="adj2" fmla="val 54695"/>
+              <a:gd name="adj3" fmla="val 25000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="72" name="Picture 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41E7210-CCBF-40AC-A7CE-7BE4806AC3CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60816D5A-0EFE-4AEE-AA7D-74E12177D56C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,8 +5579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8500551" y="2391506"/>
-          <a:ext cx="2341233" cy="154745"/>
+          <a:off x="12694227" y="900546"/>
+          <a:ext cx="6542857" cy="3752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,24 +5855,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D64482-C3FF-45F2-9E63-2D9AB44E07F9}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2771,84 +5883,724 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="23.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="C12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="C13" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="30">
+      <c r="B23" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="23.25">
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{B8A3397E-7879-439E-946B-CFFEB997E9D2}"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://developer.download.nvidia.com/assets/embedded/secure/jetson/GCC/gcc-linaro-7.3.1-2018.05-x86_64_aarch64-linux-gnu.tar.xz?__token__=exp=1762506225~hmac=fe54d65195fd1e78ca52f0b6315e6194e5674db2a1e97e64b9e71f0efa61aaa9&amp;t=eyJscyI6ImdzZW8iLCJsc2QiOiJodHRwczovL3d3dy5nb29nbGUuY29tLyJ9" xr:uid="{99E58DAC-5FE2-4A78-A5A9-D53560361CF1}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{3B7EDF1C-4497-42C3-B8B7-3E88F6F2F49D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439F83C-EBA5-404A-86DB-BF39BB22AAC5}">
+  <dimension ref="H8:T45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:20">
+      <c r="H8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="8:20" ht="15.75" thickBot="1"/>
+    <row r="12" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
+    </row>
+    <row r="13" spans="8:20">
+      <c r="H13" s="68"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+    </row>
+    <row r="14" spans="8:20">
+      <c r="H14" s="68"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+    </row>
+    <row r="15" spans="8:20">
+      <c r="H15" s="68"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+    </row>
+    <row r="16" spans="8:20">
+      <c r="H16" s="68"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H17" s="68"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="73"/>
+    </row>
+    <row r="18" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H18" s="68"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="73"/>
+    </row>
+    <row r="19" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H19" s="68"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="73"/>
+    </row>
+    <row r="20" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H20" s="68"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="73"/>
+    </row>
+    <row r="21" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H21" s="68"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="73"/>
+    </row>
+    <row r="22" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H22" s="68"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="73"/>
+    </row>
+    <row r="23" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H23" s="68"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="73"/>
+    </row>
+    <row r="24" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H24" s="68"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="73"/>
+    </row>
+    <row r="25" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H25" s="68"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" s="73"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="73"/>
+    </row>
+    <row r="26" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H26" s="68"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="73"/>
+    </row>
+    <row r="27" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H27" s="68"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H28" s="68"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="73"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="73"/>
+    </row>
+    <row r="29" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H29" s="68"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="73"/>
+    </row>
+    <row r="30" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H30" s="68"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="73"/>
+    </row>
+    <row r="31" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H31" s="68"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H32" s="68"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="73"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="73"/>
+    </row>
+    <row r="33" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H33" s="68"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="74"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="73"/>
+    </row>
+    <row r="34" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H34" s="68"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="73"/>
+    </row>
+    <row r="35" spans="8:20" ht="15.75" thickTop="1">
+      <c r="H35" s="68"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="73"/>
+    </row>
+    <row r="36" spans="8:20">
+      <c r="H36" s="68"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="73"/>
+    </row>
+    <row r="37" spans="8:20">
+      <c r="H37" s="68"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="73"/>
+    </row>
+    <row r="38" spans="8:20">
+      <c r="H38" s="68"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="73"/>
+    </row>
+    <row r="39" spans="8:20">
+      <c r="H39" s="68"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="73"/>
+    </row>
+    <row r="40" spans="8:20">
+      <c r="H40" s="68"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="O40" s="77"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="73"/>
+    </row>
+    <row r="41" spans="8:20">
+      <c r="H41" s="68"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="73"/>
+    </row>
+    <row r="42" spans="8:20">
+      <c r="H42" s="68"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="73"/>
+    </row>
+    <row r="43" spans="8:20">
+      <c r="H43" s="68"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="73"/>
+    </row>
+    <row r="44" spans="8:20" ht="15.75" thickBot="1">
+      <c r="H44" s="74"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="76"/>
+    </row>
+    <row r="45" spans="8:20" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="J27:J33"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="O27:O33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2856,141 +6608,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1355A7-28C2-430D-B1A0-86B79E8B3C8A}">
   <dimension ref="A3:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>69</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1">
+      <c r="A4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="13"/>
-      <c r="B8" s="37"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="13"/>
-      <c r="B9" s="37"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="13"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="13"/>
-      <c r="B11" s="37"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="13"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="13"/>
-      <c r="B13" s="37"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="13"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="13"/>
-      <c r="B15" s="37"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="13"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="13"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
@@ -2998,19 +6750,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="13"/>
-      <c r="B20" s="37"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="13"/>
-      <c r="B21" s="37"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3018,21 +6770,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="13"/>
-      <c r="B22" s="37"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="13"/>
-      <c r="B23" s="37"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="13"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3042,97 +6794,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="14"/>
-      <c r="B25" s="37"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:4" s="26" customFormat="1">
+      <c r="A26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="13"/>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="14"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3148,665 +6900,668 @@
   <dimension ref="B1:AD35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
-    <col min="5" max="14" width="9.109375" style="4"/>
-    <col min="15" max="15" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+    <col min="5" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="2:15">
       <c r="B2" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="D4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15">
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="D5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15">
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="D6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15">
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="D7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15">
       <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="D8" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15">
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15">
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="D10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15">
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="D11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15">
       <c r="B12" s="8"/>
       <c r="C12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15">
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="D13" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15">
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="D14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+      <c r="D15" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:30">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:30">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:30">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:30">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:30">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:30">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:30">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:30">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:30">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:30">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:30">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="5"/>
       <c r="R29" s="8"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="25"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="49"/>
+    </row>
+    <row r="30" spans="2:30">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:30">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:30">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
       <c r="O35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J10:N10"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="J34:N34"/>
     <mergeCell ref="J35:N35"/>
@@ -3877,6 +7632,7 @@
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3887,11 +7643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B7FD2-A3EA-4EB1-A52D-CEA50608CC5E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN59" sqref="AN59"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB65" sqref="AB65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3902,588 +7658,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C8069C-E5A7-4AB7-B7ED-55DB8C118956}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.21875" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="56"/>
-    <col min="4" max="9" width="9.109375" style="19"/>
-    <col min="10" max="16" width="9.109375" style="4"/>
+    <col min="2" max="2" width="39.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="38"/>
+    <col min="4" max="9" width="9.140625" style="19"/>
+    <col min="10" max="16" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="46" t="s">
+    <row r="1" spans="2:16">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="B2" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+    </row>
+    <row r="5" spans="2:16" ht="30">
+      <c r="B5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-    </row>
-    <row r="5" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="C8" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="C10" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="C11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C12" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C13" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="C14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="C17" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="C18" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="D18" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="C19" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="C20" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4527,268 +8283,268 @@
       <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="84.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.109375" style="9"/>
+    <col min="5" max="5" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:10">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="4:10">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="4:10">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="4:10">
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="4:10">
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="4:10">
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="4:10">
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="4:10">
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="4:10">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="4:10">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="4:10">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="4:10">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="4:10">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="4:10">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="4:10">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="4:10">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="4:21">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="4:21">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="4:21">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="4:21">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="4:21">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="4:21">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="4:21">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="4:21">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+    </row>
+    <row r="25" spans="4:21">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="4:21">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4831,315 +8587,315 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="46" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="57.6" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="M5" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B9" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="Q11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="39.6" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="35.450000000000003" customHeight="1">
+      <c r="A13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="B13" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="409.5">
+      <c r="A14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="P14" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="M5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="Q11" t="s">
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="L19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="S12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="P14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="L16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="L19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5164,294 +8920,486 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="102" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M24" s="40"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="M24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC95403-EA31-403A-8A44-C743DC61AC7C}">
+  <dimension ref="B2:V94"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="21" max="21" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="V2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="28.5">
+      <c r="B3" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="V3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="18">
+      <c r="C37" s="64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="18">
+      <c r="C42" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="65"/>
+    </row>
+    <row r="49" spans="2:3" ht="28.5">
+      <c r="B49" s="66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="18">
+      <c r="C85" s="64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="18">
+      <c r="C91" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Embedded_linux.xlsx
+++ b/Embedded_linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EmbeddedLinux_PlayerGround\EmbeddedLinux_PlayerGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B44FE-D39A-4688-8A7C-42C619B3653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB807F4-7B7B-42F1-A553-6EF9C5C8E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting kernel module" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="DEVICE FILE(DEVICE NODE)" sheetId="8" r:id="rId7"/>
     <sheet name="Interupt(event)" sheetId="10" r:id="rId8"/>
     <sheet name="Process" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
+    <sheet name="SIGNAL" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="305">
   <si>
     <t>sudo apt update</t>
   </si>
@@ -1438,12 +1439,699 @@
   <si>
     <t>object code B</t>
   </si>
+  <si>
+    <t xml:space="preserve">When the process start running, the resource is provided for it will be isolated resource, and other Process can not access to this </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">folk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">function to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duplicate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> currently running process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">folk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>execl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to start new other process totally different with parent process </t>
+    </r>
+  </si>
+  <si>
+    <t>Separate process</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>How to have process</t>
+  </si>
+  <si>
+    <t>[Created] → [Ready] → [Running] → [Waiting/Blocked] → [Terminated]</t>
+  </si>
+  <si>
+    <t>Process life circle</t>
+  </si>
+  <si>
+    <t>Communication between mutil process</t>
+  </si>
+  <si>
+    <t>IPC(Inter Process Communication)</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Signal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have exaclly purpose like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hardware interrupt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but be designed for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>software interrupt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E.g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Command line, Keyboard shortcut,(Ctrl + C,…), Timer, Process child respond,…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generated: Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> received the signal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but still do nothing</t>
+    </r>
+  </si>
+  <si>
+    <t>Pending:</t>
+  </si>
+  <si>
+    <t>The signal has been generated but still waiting the process handle it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delivered / Handled: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check the signal and conduct doing something with this signal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 type of signal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when It has sent to process:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The signal can be blocked by using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mask value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to mask </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the signal table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in process by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bit "1" </t>
+    </r>
+  </si>
+  <si>
+    <t>Generated → Pending (if blocked)</t>
+  </si>
+  <si>
+    <t>Pending → Delivered (when unblocked)</t>
+  </si>
+  <si>
+    <r>
+      <t>The signal can be ignore by setting ignore macro "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIG_IGN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" for signal</t>
+    </r>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Simple async event, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in OS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>local comm</t>
+    </r>
+  </si>
+  <si>
+    <t>Similar a head and tail of pipe use for exchange data(endpoint of a two-way communication)</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Stream Socket (SOCK_STREAM)</t>
+  </si>
+  <si>
+    <r>
+      <t>AF_INET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AF_INET6</t>
+    </r>
+  </si>
+  <si>
+    <t>Internet communication</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Web server, HTTP</t>
+  </si>
+  <si>
+    <t>Datagram Socket (SOCK_DGRAM)</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>DNS, VoIP</t>
+  </si>
+  <si>
+    <t>Raw Socket (SOCK_RAW)</t>
+  </si>
+  <si>
+    <t>AF_PACKET</t>
+  </si>
+  <si>
+    <t>Low-level network (custom headers)</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Packet sniffing</t>
+  </si>
+  <si>
+    <t>Unix Domain Socket (SOCK_STREAM / DGRAM)</t>
+  </si>
+  <si>
+    <t>AF_UNIX</t>
+  </si>
+  <si>
+    <t>Local interprocess communication</t>
+  </si>
+  <si>
+    <t>Local (no TCP/IP)</t>
+  </si>
+  <si>
+    <t>systemd, X11</t>
+  </si>
+  <si>
+    <t>Netlink Socket</t>
+  </si>
+  <si>
+    <t>AF_NETLINK</t>
+  </si>
+  <si>
+    <t>Kernel ↔ Userspace communication</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <r>
+      <t>ip route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>udev</t>
+    </r>
+  </si>
+  <si>
+    <t>Some ralated defination</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP ivp4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>network address for device with 4byte number(similer for ivp6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gate of each application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transmiss or receive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data throught </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for app</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,6 +2200,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1520,6 +2229,20 @@
     </font>
     <font>
       <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -1569,7 +2292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1783,12 +2506,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1881,6 +2684,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1888,15 +2721,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,35 +2762,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1980,6 +2782,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3129,8 +3983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2317326" y="292894"/>
-          <a:ext cx="2292447" cy="598227"/>
+          <a:off x="2313385" y="292894"/>
+          <a:ext cx="2287191" cy="598884"/>
           <a:chOff x="2319401" y="292894"/>
           <a:chExt cx="2295212" cy="597881"/>
         </a:xfrm>
@@ -3319,8 +4173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1222112" y="2065794"/>
-          <a:ext cx="8307990" cy="3262311"/>
+          <a:off x="1220798" y="2075976"/>
+          <a:ext cx="8289597" cy="3500436"/>
           <a:chOff x="984097" y="2251199"/>
           <a:chExt cx="8273861" cy="3262311"/>
         </a:xfrm>
@@ -4316,8 +5170,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3534960" y="9277665"/>
-          <a:ext cx="2292446" cy="598227"/>
+          <a:off x="3528391" y="10199619"/>
+          <a:ext cx="2287191" cy="598884"/>
           <a:chOff x="2319401" y="292894"/>
           <a:chExt cx="2295212" cy="597881"/>
         </a:xfrm>
@@ -4506,8 +5360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1329502" y="10732261"/>
-          <a:ext cx="8655859" cy="3452810"/>
+          <a:off x="1326874" y="11654872"/>
+          <a:ext cx="8637466" cy="3452810"/>
           <a:chOff x="1722783" y="10866782"/>
           <a:chExt cx="8683849" cy="3452810"/>
         </a:xfrm>
@@ -5548,15 +6402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>446857</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98245</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1277121</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5579,8 +6433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12694227" y="900546"/>
-          <a:ext cx="6542857" cy="3752381"/>
+          <a:off x="12790715" y="1094758"/>
+          <a:ext cx="2578173" cy="1463386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5589,7 +6443,4074 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>263770</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167419</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC317AF0-C196-493B-999D-2FF41F3E5B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13065370" y="10220325"/>
+          <a:ext cx="1541584" cy="1386619"/>
+          <a:chOff x="12997962" y="3502269"/>
+          <a:chExt cx="1538653" cy="1215169"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="Rectangle 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E9AC71-3EAC-432E-95F3-32464C2F1E7F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13466152" y="4116998"/>
+            <a:ext cx="1070463" cy="600440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Start Process A</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Arrow: Curved Right 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21193E5-4CFB-4CD1-B9A3-591181641537}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12997962" y="3502269"/>
+            <a:ext cx="454269" cy="1018443"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198559</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D44287-1BE1-400E-803C-B3E50B6DF76A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14939596" y="4359519"/>
+          <a:ext cx="1070463" cy="600440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Running</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>137746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>468190</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D04BD7-F975-4282-A97C-F585EC5D3C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16425496" y="4358054"/>
+          <a:ext cx="1070463" cy="600440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Folk()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390976</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>281073</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>175478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFFE3F7-A9C8-4D87-869E-054B61CDB7E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18022359" y="4353128"/>
+          <a:ext cx="2929991" cy="613222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Running</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13191</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Arrow: Curved Right 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275BC297-D117-4DA3-82B0-B2B4985D8E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17040960" y="4843096"/>
+          <a:ext cx="448406" cy="1040423"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 59915"/>
+            <a:gd name="adj3" fmla="val 47507"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>365334</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>226122</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>36267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC536C34-DA80-41B4-9152-FB19235625EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18081834" y="5367603"/>
+          <a:ext cx="2915357" cy="600440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Running</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>58431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DF9424-E370-4DCC-B4E5-B56E54CB56D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="4659007"/>
+          <a:ext cx="366346" cy="732"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198559</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>56966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>58431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D013E9-24F9-402E-A288-15E1FE3B2F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16010059" y="4658274"/>
+          <a:ext cx="415437" cy="1465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>468190</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>56966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390976</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59367</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2FD73E-3D20-4BD5-90D4-ABD94C74B714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17491594" y="4657338"/>
+          <a:ext cx="530765" cy="2401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC264B6-E3AD-47F7-898B-7D30CCA2B69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12423430" y="4742287"/>
+          <a:ext cx="9737986" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>4880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>4880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237EAB00-DD41-4B84-BC90-3EC8C2FEC4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17567183" y="5746156"/>
+          <a:ext cx="4616214" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="814552" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492C7EE2-0CFF-4728-9014-7D696FAB9E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21408259" y="4328948"/>
+          <a:ext cx="814552" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Process A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>40728</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53865</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="814552" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="TextBox 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD7AC83-1251-46B3-BC11-E24D9B6134F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21422711" y="5414141"/>
+          <a:ext cx="814552" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Process A1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>449206</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>52831</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="604625" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F6C2B3-2405-497A-B254-32AA3F564437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17472610" y="4462703"/>
+          <a:ext cx="604625" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Folk()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> &gt; 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>431372</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144434</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="604625" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FDC258-BCEB-4965-9A20-B693672E757E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17454776" y="5506806"/>
+          <a:ext cx="604625" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Folk()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390976</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>281073</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23078</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rectangle 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1996118E-E96F-4DA1-A387-88FCD2494A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18069376" y="4353331"/>
+          <a:ext cx="2938097" cy="651322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Running</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>272877</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>119611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>578736</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>181391</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="157" name="Group 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABACA9FF-4F8B-47BB-9FEF-A8F14E1B0D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12464877" y="14035636"/>
+          <a:ext cx="23689734" cy="3109780"/>
+          <a:chOff x="12463415" y="7599293"/>
+          <a:chExt cx="15023567" cy="3366541"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="TextBox 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20394FD1-05C7-4DDC-97BF-BAD1E1FFB261}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26669313" y="8304758"/>
+            <a:ext cx="814552" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Process A</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="156" name="Group 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F2A00E-9545-4645-85E5-79A9A8D4F911}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12463415" y="7599293"/>
+            <a:ext cx="15023567" cy="3366541"/>
+            <a:chOff x="12463415" y="7599293"/>
+            <a:chExt cx="15023567" cy="3366541"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="155" name="Group 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32E261A-60B9-4DD4-8522-9579448F2C4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12463415" y="7599293"/>
+              <a:ext cx="15023567" cy="3366541"/>
+              <a:chOff x="12463415" y="7599293"/>
+              <a:chExt cx="15023567" cy="3366541"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="151" name="Group 150">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9D3377-6327-490D-A8E5-AEC6F67A6156}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="18165454" y="8209299"/>
+                <a:ext cx="8388413" cy="680718"/>
+                <a:chOff x="18022359" y="8199607"/>
+                <a:chExt cx="8319332" cy="675783"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="100" name="Rectangle 99">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA48C7A-8F00-4A75-B4B3-641760B1A858}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="18022359" y="8199607"/>
+                  <a:ext cx="8319332" cy="649701"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Running...</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="150" name="Rectangle 149">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C40036-5BF1-4594-AD60-3CF1110AB572}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000">
+                  <a:off x="24727990" y="8771976"/>
+                  <a:ext cx="174171" cy="103414"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="95" name="Group 94">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8F4EC5-B538-470D-BC14-FDCABBEB9F45}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="13134944" y="7599293"/>
+                <a:ext cx="1548210" cy="1256583"/>
+                <a:chOff x="12997962" y="3502269"/>
+                <a:chExt cx="1538653" cy="1215169"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="96" name="Rectangle 95">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEEC9C1-4FC3-4A85-8BE1-17662BA8C018}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13466152" y="4116998"/>
+                  <a:ext cx="1070463" cy="600440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Start Process A</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="97" name="Arrow: Curved Right 96">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320E2F00-7885-4AF0-80C2-9ADD6F4148BF}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12997962" y="3502269"/>
+                  <a:ext cx="454269" cy="1018443"/>
+                </a:xfrm>
+                <a:prstGeom prst="curvedRightArrow">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="98" name="Rectangle 97">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F90D6DC-B8CC-4637-A3DD-1B836C003DB0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15054278" y="8214754"/>
+                <a:ext cx="1080020" cy="641854"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Running</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C09AF9B-DD6D-45E6-8C27-31D36FC60F47}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="96" idx="3"/>
+                <a:endCxn id="98" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="14683154" y="8555656"/>
+                <a:ext cx="371124" cy="732"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25202435-F1EB-4F4E-AE73-6C96A0512393}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="98" idx="3"/>
+                <a:endCxn id="99" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="16134298" y="8554923"/>
+                <a:ext cx="420215" cy="1465"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D119E8E4-F58D-4200-A824-0C4A453B9BAA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="99" idx="3"/>
+                <a:endCxn id="100" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="17627606" y="8536731"/>
+                <a:ext cx="537848" cy="2354"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="106" name="Straight Connector 105">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C87EFA-4AD2-4BE3-A13F-C0C5FAE431BE}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12463415" y="8641968"/>
+                <a:ext cx="15023567" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="none" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="110" name="TextBox 109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84923B15-CAF3-44A6-B2AF-2BA6BD79759F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="17610771" y="8318874"/>
+                <a:ext cx="604625" cy="217560"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>Folk()</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" baseline="0"/>
+                  <a:t> &gt; 0</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="148" name="Group 147">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9599CB9-6349-4796-A558-BCF91A06F368}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="16554512" y="8213289"/>
+                <a:ext cx="9561284" cy="2752545"/>
+                <a:chOff x="16465060" y="8209503"/>
+                <a:chExt cx="9512383" cy="2749469"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="145" name="Group 144">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A94845-7D5C-4C93-A7C3-BC8767A3B1F5}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="16465060" y="8209503"/>
+                  <a:ext cx="9512383" cy="2749469"/>
+                  <a:chOff x="16465060" y="8209503"/>
+                  <a:chExt cx="9512383" cy="2749469"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="134" name="Group 133">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3140EB1-BF5A-4E65-9F16-CF0011940D10}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="16465060" y="8209503"/>
+                    <a:ext cx="9512383" cy="2743851"/>
+                    <a:chOff x="16503880" y="8207038"/>
+                    <a:chExt cx="9534113" cy="2743645"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="122" name="Group 121">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1659C2A6-004C-4FAD-B8A2-5EC17DC1CB96}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="16503880" y="8207038"/>
+                      <a:ext cx="1073367" cy="1565003"/>
+                      <a:chOff x="16425496" y="8204688"/>
+                      <a:chExt cx="1070463" cy="1562100"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="99" name="Rectangle 98">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E156C9B-A66F-4B44-99F6-F8BD70CB6EA4}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="16425496" y="8204688"/>
+                        <a:ext cx="1070463" cy="637075"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="2">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100" b="1"/>
+                          <a:t>Folk()</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="101" name="Arrow: Curved Right 100">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242234F0-C329-428E-835E-E3E7E5E17943}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="17040960" y="8726365"/>
+                        <a:ext cx="448406" cy="1040423"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="curvedRightArrow">
+                        <a:avLst>
+                          <a:gd name="adj1" fmla="val 25000"/>
+                          <a:gd name="adj2" fmla="val 59915"/>
+                          <a:gd name="adj3" fmla="val 47507"/>
+                        </a:avLst>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:endParaRPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="102" name="Rectangle 101">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3853DD-C8A6-4D76-B34A-9E37BB77817A}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="18085428" y="9154382"/>
+                      <a:ext cx="1409192" cy="771890"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="2">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100"/>
+                        <a:t>Running...</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="111" name="TextBox 110">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607C790C-9A46-4EE1-9237-F0A273947802}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="17540429" y="9396264"/>
+                      <a:ext cx="604625" cy="217560"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="800"/>
+                        <a:t>Folk()</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="800" baseline="0"/>
+                        <a:t> = 0</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="en-US" sz="800"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="133" name="Group 132">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED84BE94-F2A7-4566-9A7D-D41959D7BBAF}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="19718517" y="9163907"/>
+                      <a:ext cx="6319476" cy="1786776"/>
+                      <a:chOff x="19718517" y="9163907"/>
+                      <a:chExt cx="6319476" cy="1786776"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="109" name="TextBox 108">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1B06F8-B1E8-48BF-8CA5-D2CE8F1DA93C}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="21407999" y="9343796"/>
+                        <a:ext cx="929536" cy="265938"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="tx1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                        <a:spAutoFit/>
+                      </a:bodyPr>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100" b="1"/>
+                          <a:t>Process A1</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="132" name="Group 131">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BD6D0-B047-4A87-A7AC-8E6573925BAF}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="19718517" y="9163907"/>
+                        <a:ext cx="6319476" cy="1786776"/>
+                        <a:chOff x="19718517" y="9163907"/>
+                        <a:chExt cx="6319476" cy="1786776"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:grpSp>
+                      <xdr:nvGrpSpPr>
+                        <xdr:cNvPr id="123" name="Group 122">
+                          <a:extLst>
+                            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECBC0DC-EF46-4C6C-B8AE-5B0D8FFB7D93}"/>
+                            </a:ext>
+                          </a:extLst>
+                        </xdr:cNvPr>
+                        <xdr:cNvGrpSpPr/>
+                      </xdr:nvGrpSpPr>
+                      <xdr:grpSpPr>
+                        <a:xfrm>
+                          <a:off x="19718517" y="9163907"/>
+                          <a:ext cx="1409921" cy="1696528"/>
+                          <a:chOff x="19625617" y="9158654"/>
+                          <a:chExt cx="1404115" cy="1692519"/>
+                        </a:xfrm>
+                      </xdr:grpSpPr>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="116" name="Rectangle 115">
+                            <a:extLst>
+                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79722A29-1D0B-4520-B03A-3B438C61E129}"/>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:cNvPr>
+                          <xdr:cNvSpPr/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="19625617" y="9158654"/>
+                            <a:ext cx="1403385" cy="771890"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:lnRef>
+                          <a:fillRef idx="2">
+                            <a:schemeClr val="accent1"/>
+                          </a:fillRef>
+                          <a:effectRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:pPr algn="ctr"/>
+                            <a:r>
+                              <a:rPr lang="en-US" sz="1100" b="1"/>
+                              <a:t>execl(&lt;Process</a:t>
+                            </a:r>
+                            <a:r>
+                              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                              <a:t> B&gt;</a:t>
+                            </a:r>
+                            <a:r>
+                              <a:rPr lang="en-US" sz="1100" b="1"/>
+                              <a:t>)</a:t>
+                            </a:r>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="121" name="Arrow: Curved Right 120">
+                            <a:extLst>
+                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3508F037-CFE0-4775-B450-539AFAFE9E44}"/>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:cNvPr>
+                          <xdr:cNvSpPr/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="20581326" y="9810750"/>
+                            <a:ext cx="448406" cy="1040423"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="curvedRightArrow">
+                            <a:avLst>
+                              <a:gd name="adj1" fmla="val 25000"/>
+                              <a:gd name="adj2" fmla="val 59915"/>
+                              <a:gd name="adj3" fmla="val 47507"/>
+                            </a:avLst>
+                          </a:prstGeom>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="2">
+                            <a:schemeClr val="accent1">
+                              <a:shade val="50000"/>
+                            </a:schemeClr>
+                          </a:lnRef>
+                          <a:fillRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:fillRef>
+                          <a:effectRef idx="0">
+                            <a:schemeClr val="accent1"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="lt1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:pPr algn="l"/>
+                            <a:endParaRPr lang="en-US" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                            </a:endParaRPr>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                    </xdr:grpSp>
+                    <xdr:grpSp>
+                      <xdr:nvGrpSpPr>
+                        <xdr:cNvPr id="131" name="Group 130">
+                          <a:extLst>
+                            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C6AED8-4748-4A25-B20E-1E50A69DADB3}"/>
+                            </a:ext>
+                          </a:extLst>
+                        </xdr:cNvPr>
+                        <xdr:cNvGrpSpPr/>
+                      </xdr:nvGrpSpPr>
+                      <xdr:grpSpPr>
+                        <a:xfrm>
+                          <a:off x="21144141" y="10326564"/>
+                          <a:ext cx="4893852" cy="624119"/>
+                          <a:chOff x="21144141" y="10326564"/>
+                          <a:chExt cx="4893852" cy="624119"/>
+                        </a:xfrm>
+                      </xdr:grpSpPr>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="130" name="Rectangle 129">
+                            <a:extLst>
+                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14478D89-220D-45FE-A51C-2AC29E9DBE15}"/>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:cNvPr>
+                          <xdr:cNvSpPr/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="22965804" y="10326564"/>
+                            <a:ext cx="1075236" cy="620904"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:lnRef>
+                          <a:fillRef idx="2">
+                            <a:schemeClr val="accent1"/>
+                          </a:fillRef>
+                          <a:effectRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:pPr algn="ctr"/>
+                            <a:r>
+                              <a:rPr lang="en-US" sz="1100"/>
+                              <a:t>Running</a:t>
+                            </a:r>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                      <xdr:sp macro="" textlink="">
+                        <xdr:nvSpPr>
+                          <xdr:cNvPr id="124" name="Rectangle 123">
+                            <a:extLst>
+                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDC37E6-4C0E-485B-B323-CF457766D55B}"/>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:cNvPr>
+                          <xdr:cNvSpPr/>
+                        </xdr:nvSpPr>
+                        <xdr:spPr>
+                          <a:xfrm>
+                            <a:off x="21389592" y="10329779"/>
+                            <a:ext cx="1075236" cy="620904"/>
+                          </a:xfrm>
+                          <a:prstGeom prst="rect">
+                            <a:avLst/>
+                          </a:prstGeom>
+                        </xdr:spPr>
+                        <xdr:style>
+                          <a:lnRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:lnRef>
+                          <a:fillRef idx="2">
+                            <a:schemeClr val="accent1"/>
+                          </a:fillRef>
+                          <a:effectRef idx="1">
+                            <a:schemeClr val="accent1"/>
+                          </a:effectRef>
+                          <a:fontRef idx="minor">
+                            <a:schemeClr val="dk1"/>
+                          </a:fontRef>
+                        </xdr:style>
+                        <xdr:txBody>
+                          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                          <a:lstStyle/>
+                          <a:p>
+                            <a:pPr algn="ctr"/>
+                            <a:r>
+                              <a:rPr lang="en-US" sz="1100"/>
+                              <a:t>Start Process B</a:t>
+                            </a:r>
+                          </a:p>
+                        </xdr:txBody>
+                      </xdr:sp>
+                      <xdr:grpSp>
+                        <xdr:nvGrpSpPr>
+                          <xdr:cNvPr id="128" name="Group 127">
+                            <a:extLst>
+                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B788FA6F-946C-4832-AB26-BB4922D61D35}"/>
+                              </a:ext>
+                            </a:extLst>
+                          </xdr:cNvPr>
+                          <xdr:cNvGrpSpPr/>
+                        </xdr:nvGrpSpPr>
+                        <xdr:grpSpPr>
+                          <a:xfrm>
+                            <a:off x="21144141" y="10416714"/>
+                            <a:ext cx="4893852" cy="316885"/>
+                            <a:chOff x="21163432" y="10417093"/>
+                            <a:chExt cx="4898465" cy="316885"/>
+                          </a:xfrm>
+                        </xdr:grpSpPr>
+                        <xdr:sp macro="" textlink="">
+                          <xdr:nvSpPr>
+                            <xdr:cNvPr id="127" name="TextBox 126">
+                              <a:extLst>
+                                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8AD7EA-15F9-4AB1-9116-9831960D7E2C}"/>
+                                </a:ext>
+                              </a:extLst>
+                            </xdr:cNvPr>
+                            <xdr:cNvSpPr txBox="1"/>
+                          </xdr:nvSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="25247345" y="10417093"/>
+                              <a:ext cx="814552" cy="264560"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="rect">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="tx1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                          <xdr:txBody>
+                            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                              <a:spAutoFit/>
+                            </a:bodyPr>
+                            <a:lstStyle/>
+                            <a:p>
+                              <a:r>
+                                <a:rPr lang="en-US" sz="1100" b="1"/>
+                                <a:t>Process B</a:t>
+                              </a:r>
+                            </a:p>
+                          </xdr:txBody>
+                        </xdr:sp>
+                        <xdr:cxnSp macro="">
+                          <xdr:nvCxnSpPr>
+                            <xdr:cNvPr id="125" name="Straight Connector 124">
+                              <a:extLst>
+                                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42D18A-4B0A-4913-9B75-AA6EFC650E1D}"/>
+                                </a:ext>
+                              </a:extLst>
+                            </xdr:cNvPr>
+                            <xdr:cNvCxnSpPr/>
+                          </xdr:nvCxnSpPr>
+                          <xdr:spPr>
+                            <a:xfrm>
+                              <a:off x="21163432" y="10733978"/>
+                              <a:ext cx="3858263" cy="0"/>
+                            </a:xfrm>
+                            <a:prstGeom prst="line">
+                              <a:avLst/>
+                            </a:prstGeom>
+                            <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:prstDash val="dash"/>
+                              <a:round/>
+                              <a:headEnd type="none" w="med" len="med"/>
+                              <a:tailEnd type="none" w="med" len="med"/>
+                            </a:ln>
+                          </xdr:spPr>
+                          <xdr:style>
+                            <a:lnRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:lnRef>
+                            <a:fillRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:fillRef>
+                            <a:effectRef idx="0">
+                              <a:scrgbClr r="0" g="0" b="0"/>
+                            </a:effectRef>
+                            <a:fontRef idx="minor">
+                              <a:schemeClr val="tx1"/>
+                            </a:fontRef>
+                          </xdr:style>
+                        </xdr:cxnSp>
+                      </xdr:grpSp>
+                    </xdr:grpSp>
+                  </xdr:grpSp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="118" name="Multiplication Sign 117">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23017B4C-5328-4D7B-BA6D-3E5AEEC668EB}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="21031268" y="9531627"/>
+                        <a:ext cx="178593" cy="196453"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="mathMultiply">
+                        <a:avLst/>
+                      </a:prstGeom>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent2">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent2"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent2"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:endParaRPr lang="en-US" sz="1100"/>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="107" name="Straight Connector 106">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E5B2D-A3AE-4ACA-BB14-ED147928DE57}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="101" idx="2"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="17570654" y="9637710"/>
+                      <a:ext cx="3547529" cy="0"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                      <a:round/>
+                      <a:headEnd type="none" w="med" len="med"/>
+                      <a:tailEnd type="none" w="med" len="med"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="144" name="Group 143">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2625E23F-D75D-43F4-BFBA-A9C04A9DB85C}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="24275561" y="10337659"/>
+                    <a:ext cx="795939" cy="621313"/>
+                    <a:chOff x="24275561" y="10337659"/>
+                    <a:chExt cx="795939" cy="621313"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="141" name="Rectangle 140">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B20F55A-A975-4D5C-82A6-3A4BDEB9D513}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="24275561" y="10337659"/>
+                      <a:ext cx="612195" cy="621313"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="2">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100"/>
+                        <a:t>Done</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="143" name="Multiplication Sign 142">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98363EB-B0BB-4594-BFAD-25EE2363550F}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="24893314" y="10640786"/>
+                      <a:ext cx="178186" cy="196468"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="mathMultiply">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent2">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent2"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent2"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="en-US" sz="1100"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="146" name="Arrow: Up 145">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136B3066-93B2-4842-BE01-B86D93C7E4F6}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="24514630" y="8855529"/>
+                  <a:ext cx="146956" cy="1475013"/>
+                </a:xfrm>
+                <a:prstGeom prst="upArrow">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="147" name="Rectangle 146">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8F44D7-B579-4474-BA0B-E0AFDB4650A2}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="24498300" y="10292443"/>
+                  <a:ext cx="174171" cy="103414"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="Arrow: Up 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF48580C-0100-47C9-978F-203AB2EBC6EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="24941693" y="8865333"/>
+              <a:ext cx="146956" cy="1478963"/>
+            </a:xfrm>
+            <a:prstGeom prst="upArrow">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="152" name="TextBox 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1871E5-4C7B-4DBD-87FD-EA485D9B4CFF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23566314" y="9312648"/>
+              <a:ext cx="1163266" cy="217560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="800"/>
+                <a:t>Begging finish process</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="TextBox 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413F4C81-E0F4-4F80-8E6F-CFFA03204E00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25058029" y="9311027"/>
+              <a:ext cx="569068" cy="217560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="800"/>
+                <a:t>Approve</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30373</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30041</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4113" name="Group 4112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAFA856-D6B1-40F2-B67C-1202123D40C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12831973" y="4698205"/>
+          <a:ext cx="16068343" cy="1703786"/>
+          <a:chOff x="12860548" y="5012530"/>
+          <a:chExt cx="7314868" cy="1703786"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4112" name="Group 4111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F03FEE6-5A84-40C8-B2C9-6B8C56E2F6A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12860548" y="5012530"/>
+            <a:ext cx="7314868" cy="1703786"/>
+            <a:chOff x="12860548" y="5012530"/>
+            <a:chExt cx="7314868" cy="1703786"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="4111" name="Group 4110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5386D0-ACB0-4E98-B399-21F356AD1A60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12860548" y="5012530"/>
+              <a:ext cx="7314868" cy="1703786"/>
+              <a:chOff x="12860548" y="5012530"/>
+              <a:chExt cx="7314868" cy="1703786"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="4109" name="Group 4108">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EB7F3C-624D-4434-9B83-9EA1AD6F20F3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="12860548" y="5634037"/>
+                <a:ext cx="4523767" cy="603895"/>
+                <a:chOff x="12860548" y="5634037"/>
+                <a:chExt cx="4523767" cy="603895"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="158" name="Rectangle 157">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388EADBF-38EE-471F-950D-87E6FA19675D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="12860548" y="5637492"/>
+                  <a:ext cx="1071012" cy="600440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Start exe file</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>(program)</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="160" name="Rectangle 159">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45CA9F7-2C1F-4ECF-9315-3D9BDE72D010}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="14318456" y="5634037"/>
+                  <a:ext cx="1073393" cy="600440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Load to RAM</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="162" name="Rectangle 161">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164B466D-BEB0-44C0-90D4-8F17CD7DF96A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="15722202" y="5634037"/>
+                  <a:ext cx="1662113" cy="600440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Start running</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t> by machine</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t>context</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="4110" name="Group 4109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A266665-99F8-4527-B627-5768084B0623}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="17649824" y="5012530"/>
+                <a:ext cx="2525592" cy="1703786"/>
+                <a:chOff x="17649824" y="5012530"/>
+                <a:chExt cx="2525592" cy="1703786"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="163" name="Rectangle 162">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657E6057-7199-4F31-994A-B73E3473B3A3}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17649824" y="5012530"/>
+                  <a:ext cx="2518265" cy="288132"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>PID number(Unique number)</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="164" name="Rectangle 163">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125892BA-ACD1-46A2-889B-AE488A5E3AB7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17665301" y="5498305"/>
+                  <a:ext cx="2510115" cy="288132"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>Memory space(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>code, data, stack, heap)</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="165" name="Rectangle 164">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA08318-EEDA-4C0A-B465-4E04A627D87B}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17668874" y="5966221"/>
+                  <a:ext cx="2499215" cy="288132"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>Execution context(CPU, PC ptr,...)</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="167" name="Rectangle 166">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8040D9-49DD-4707-A7B5-CC96BA68D3D5}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17672445" y="6428184"/>
+                  <a:ext cx="2495644" cy="288132"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr rtl="0"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>Resources (file, env variable,...)</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US">
+                    <a:effectLst/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+            <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+              <xdr14:nvContentPartPr>
+                <xdr14:cNvPr id="4103" name="Ink 4102">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E49462-A99E-413C-B77F-82EE595542C7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr14:cNvPr>
+                <xdr14:cNvContentPartPr/>
+              </xdr14:nvContentPartPr>
+              <xdr14:nvPr macro=""/>
+              <xdr14:xfrm>
+                <a:off x="17366295" y="5300715"/>
+                <a:ext cx="298800" cy="1274760"/>
+              </xdr14:xfrm>
+            </xdr14:contentPart>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="4103" name="Ink 4102">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E49462-A99E-413C-B77F-82EE595542C7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr/>
+              </xdr:nvPicPr>
+              <xdr:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="17358264" y="5282720"/>
+                  <a:ext cx="315027" cy="1310390"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="201" name="Straight Arrow Connector 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457DF0BA-666A-41BC-A0D6-0A993364C11B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="158" idx="3"/>
+            <a:endCxn id="160" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13931560" y="5934257"/>
+            <a:ext cx="386896" cy="3455"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="204" name="Straight Arrow Connector 203">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C485D7D8-2930-425B-85BB-3354E1CA0B48}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="160" idx="3"/>
+            <a:endCxn id="162" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15391849" y="5934257"/>
+            <a:ext cx="330353" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4122" name="Group 4121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47C50C4-CD0A-46AE-98F0-52C217051F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14316074" y="28813124"/>
+          <a:ext cx="7219951" cy="1943101"/>
+          <a:chOff x="14049374" y="29184599"/>
+          <a:chExt cx="7219951" cy="1943101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4114" name="Oval 4113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1037488A-F9E7-431F-80A2-CDD60E53DD2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18402300" y="29184599"/>
+            <a:ext cx="2867025" cy="1943101"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>INTERNET</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Global</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> IP with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2^32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> IP address</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4115" name="Rectangle: Rounded Corners 4114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF04B7D2-D588-425C-8A94-6F83A96CF923}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16211549" y="29851351"/>
+            <a:ext cx="1695451" cy="695324"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2^32 global P addr (modem household wifi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="217" name="Rectangle: Rounded Corners 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EFE420-D9FF-488C-B12E-AB1DB9990C0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14049374" y="29194126"/>
+            <a:ext cx="1695451" cy="352424"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Device with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> local IP addr</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="Rectangle: Rounded Corners 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C528D1-F492-44F1-8144-61B7E82CBF44}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14068425" y="29918025"/>
+            <a:ext cx="1695451" cy="352424"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Device with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> local IP addr</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="Rectangle: Rounded Corners 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B9CAE4-000F-4D2B-A1A9-F24A9BF327D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14068425" y="30689550"/>
+            <a:ext cx="1695451" cy="352424"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Device with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> local IP addr</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+          <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+            <xdr14:nvContentPartPr>
+              <xdr14:cNvPr id="4120" name="Ink 4119">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA4578-14E9-4157-BBEA-EB3F3D20291A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr14:cNvPr>
+              <xdr14:cNvContentPartPr/>
+            </xdr14:nvContentPartPr>
+            <xdr14:nvPr macro=""/>
+            <xdr14:xfrm>
+              <a:off x="15744600" y="29365275"/>
+              <a:ext cx="505080" cy="1534320"/>
+            </xdr14:xfrm>
+          </xdr14:contentPart>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="4120" name="Ink 4119">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EA4578-14E9-4157-BBEA-EB3F3D20291A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr/>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="15726960" y="29347275"/>
+                <a:ext cx="540720" cy="1569960"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+          <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+            <xdr14:nvContentPartPr>
+              <xdr14:cNvPr id="4121" name="Ink 4120">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B50A20-9B3F-418D-B211-EFB4A0AA26A7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr14:cNvPr>
+              <xdr14:cNvContentPartPr/>
+            </xdr14:nvContentPartPr>
+            <xdr14:nvPr macro=""/>
+            <xdr14:xfrm>
+              <a:off x="17925840" y="30193995"/>
+              <a:ext cx="466200" cy="41040"/>
+            </xdr14:xfrm>
+          </xdr14:contentPart>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="4121" name="Ink 4120">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B50A20-9B3F-418D-B211-EFB4A0AA26A7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr/>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="17908200" y="30175995"/>
+                <a:ext cx="501840" cy="76680"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-13T08:03:22.128"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">146 1786,'21'-3,"-1"0,-1-1,0 0,0-1,0 0,24-8,-36 11,22-8,-1-1,-2 0,0-1,-2 0,-1 0,33-24,-11 10,-35 21,-1 0,0-1,0 1,-1-1,-1 0,0 0,-1 0,0 0,4-9,2-11,-3 0,-2-1,-1-35,2-9,26-33,-20 73,-3-1,2-49,-12 49,3 1,18-43,-14 42,-3 0,-5-46,-2 48,2-1,4 1,11-31,1-7,-16 56,1 0,2 0,1 0,1 0,1 0,1 0,13-13,38-47,-46 54,2 0,1 0,28-22,131-114,-156 141,-10 7,1-1,1 1,0 0,0 0,2 0,-1 1,2 0,17-6,4 1,2 1,1 1,60-10,70-17,-116 26,-26 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1759.78">1 1786,'260'2,"279"-5,-513 1,0-2,-1 1,0-1,0-1,-1 0,0-1,-1 0,0-1,-2 0,1 0,-2-1,22-11,1-6,-2-1,-3 0,61-58,-48 38,-30 28,-1-1,27-37,-45 54,1-1,0 0,0 1,0-1,1 0,0 1,0 0,0-1,1 1,0 0,-1 0,2 0,-1 0,0 1,1-1,0 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,6 1,29-6,-19 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3221.19">74 1753,'15'1,"0"0,0 0,1 1,-2 0,1 0,-1 1,1 0,-2 0,1 1,-1-1,22 9,12 5,68 32,-93-37,-2 1,-1 0,-1 0,-1 1,18 20,31 25,79 74,-132-122,-2 0,0 1,-2 0,0 0,8 24,-13-25,1-1,0 1,2-1,1 1,1-1,0 0,2-1,0 1,17 9,26 13,-36-20,0-1,2 0,1 0,0-1,2-1,0 1,2-2,0 1,37 8,26 3,105 31,-169-45,0 0,1-1,0 0,1-1,39 4,28 5,-82-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5922.74">146 1720,'14'1,"0"1,0 0,-1 0,0 1,0 0,-1 0,1 0,-1 1,-1 0,0 0,0 0,18 10,33 10,87 40,-126-53,-2 1,-1 0,-1 0,-1 1,-2 0,-1 1,20 24,33 27,-46-42,-3 0,-1 0,-4 0,-1 1,-2 0,4 35,3-2,-8-17,-5 1,-8 61,-1-24,-35 54,3 16,38 316,0-447,1-1,2 1,1-1,2 0,20 24,-24-36,1-1,0 1,1-1,0 0,0 0,1 0,-1 0,1 0,1-1,-1 1,1-1,13 3,122 24,-82-17,-21-6,1 0,1-1,0-1,0-1,1 0,0-2,0 0,63-3,-28 1,-46 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-13T09:03:08.235"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 0,'5'2,"0"1,0-1,0 1,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,6 8,1-1,7 8,9 6,-1 2,-1 1,31 46,-41-53,30 34,0 0,162 236,-169-239,-19-27,-1 2,26 48,-2 0,-30-57,-1 1,0 0,9 26,84 206,-94-229,13 24,11 30,51 221,-70-239,12 74,-21-102,-5-22,0 1,1-1,0 0,0 0,0-1,1 1,1 0,-1-1,1 0,0 1,1-2,5 8,8 6,-1 0,24 36,-29-38,0 0,2 0,0-2,24 22,-25-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1477.66">1 2038,'13'1,"1"1,-1 0,0 1,1 0,-1 1,20 9,41 12,110 3,-117-16,-46-7,0-1,29 1,8-5,-36-1,0 1,0 1,1 1,-1 0,0 2,-1 1,30 9,-32-7,0-2,1 0,0-1,0-1,0-1,21 0,-13-1,1 1,32 8,-32-5,0-1,58 0,-57-4,0 2,56 9,-65-6,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333.2">54 4260,'34'1,"1"-1,0-2,0-2,0-1,-1-1,40-14,-37 7,-18 8,1-2,-1 0,-1-1,0-1,0-1,0 0,-2-1,28-23,20-17,5-6,-57 46,29-31,69-87,-75 80,-2-1,39-81,32-55,-69 123,-22 42,19-43,44-106,-66 135,-1 0,-2 0,-2-1,1-37,-2 32,8-32,-8 52,0 0,1-33,-6-264,1 300</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-11-13T09:03:13.549"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'12'1,"1"1,0 0,-1 1,0 0,1 0,20 11,-21-9,0 0,1-1,0 0,0-1,0-1,17 2,94 9,-84-7,58 1,-55-7,-7-1,-1 1,1 2,64 12,-55-7,1-1,-1-3,1-2,52-5,8 1,53 3,-137 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6027,10 +10948,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF6621A-03CD-4AB5-AD70-5384B137CA76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439F83C-EBA5-404A-86DB-BF39BB22AAC5}">
   <dimension ref="H8:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -6051,545 +10986,545 @@
     </row>
     <row r="11" spans="8:20" ht="15.75" thickBot="1"/>
     <row r="12" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="71"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="8:20">
-      <c r="H13" s="68"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="8:20">
-      <c r="H14" s="68"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="8:20">
-      <c r="H15" s="68"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="73"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
     </row>
     <row r="16" spans="8:20">
-      <c r="H16" s="68"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72" t="s">
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="73"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H17" s="68"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H18" s="68"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="73"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="53"/>
     </row>
     <row r="19" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H19" s="68"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="73"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="H20" s="68"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="79" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="79" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="73"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="21" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H21" s="68"/>
-      <c r="I21" s="73"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="78"/>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
       <c r="O21" s="78"/>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="73"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="53"/>
     </row>
     <row r="22" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H22" s="68"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="78"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="76" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
       <c r="O22" s="78"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="76" t="s">
+      <c r="P22" s="54"/>
+      <c r="Q22" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="73"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="53"/>
     </row>
     <row r="23" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H23" s="68"/>
-      <c r="I23" s="73"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
       <c r="O23" s="78"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="73"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
     </row>
     <row r="24" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H24" s="68"/>
-      <c r="I24" s="73"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="78"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="73"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
     </row>
     <row r="25" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H25" s="68"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="78"/>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="73"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
       <c r="O25" s="78"/>
-      <c r="P25" s="72" t="s">
+      <c r="P25" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="73"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="53"/>
     </row>
     <row r="26" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H26" s="68"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="76" t="s">
+      <c r="H26" s="48"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="73" t="s">
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="73"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="53"/>
     </row>
     <row r="27" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="H27" s="68"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="79" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="81" t="s">
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="73"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="53"/>
     </row>
     <row r="28" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H28" s="68"/>
-      <c r="I28" s="72"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="78"/>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="73" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="73"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="53"/>
     </row>
     <row r="29" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H29" s="68"/>
-      <c r="I29" s="72"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="52"/>
       <c r="J29" s="78"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="76" t="s">
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="73"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="53"/>
     </row>
     <row r="30" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H30" s="68"/>
-      <c r="I30" s="72"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="78"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="73"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
     </row>
     <row r="31" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H31" s="68"/>
-      <c r="I31" s="72"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="78"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="73"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="53"/>
     </row>
     <row r="32" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H32" s="68"/>
-      <c r="I32" s="72"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="78"/>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="73"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="53"/>
     </row>
     <row r="33" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H33" s="68"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76" t="s">
+      <c r="H33" s="48"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="74"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="73"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="54"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="53"/>
     </row>
     <row r="34" spans="8:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="H34" s="68"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="73"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="53"/>
     </row>
     <row r="35" spans="8:20" ht="15.75" thickTop="1">
-      <c r="H35" s="68"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="73"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="53"/>
     </row>
     <row r="36" spans="8:20">
-      <c r="H36" s="68"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="73"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="53"/>
     </row>
     <row r="37" spans="8:20">
-      <c r="H37" s="68"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="73"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="53"/>
     </row>
     <row r="38" spans="8:20">
-      <c r="H38" s="68"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="73"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="53"/>
     </row>
     <row r="39" spans="8:20">
-      <c r="H39" s="68"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72" t="s">
+      <c r="H39" s="48"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="73"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="53"/>
     </row>
     <row r="40" spans="8:20">
-      <c r="H40" s="68"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72" t="s">
+      <c r="H40" s="48"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="N40" s="77" t="s">
+      <c r="N40" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="O40" s="77"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="73"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="53"/>
     </row>
     <row r="41" spans="8:20">
-      <c r="H41" s="68"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72" t="s">
+      <c r="H41" s="48"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="73"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="53"/>
     </row>
     <row r="42" spans="8:20">
-      <c r="H42" s="68"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="73"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
     </row>
     <row r="43" spans="8:20">
-      <c r="H43" s="68"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="73"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="53"/>
     </row>
     <row r="44" spans="8:20" ht="15.75" thickBot="1">
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="76"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="56"/>
     </row>
     <row r="45" spans="8:20" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -6912,12 +11847,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="2:15">
       <c r="B2" s="16" t="s">
@@ -6926,21 +11861,21 @@
       <c r="C2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="50" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="17" t="s">
         <v>44</v>
       </c>
@@ -6952,21 +11887,21 @@
       <c r="C3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="47" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="10" t="s">
         <v>43</v>
       </c>
@@ -6976,21 +11911,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15">
@@ -6998,21 +11933,21 @@
         <v>3</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="47" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">
@@ -7020,21 +11955,21 @@
         <v>4</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15">
@@ -7042,21 +11977,21 @@
         <v>5</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="47" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15">
@@ -7064,21 +11999,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="47" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15">
@@ -7088,61 +12023,61 @@
       <c r="C9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="47" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="47" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="47" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15">
@@ -7150,426 +12085,465 @@
       <c r="C12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="47" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="47" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="47" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="47" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:30">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:30">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:30">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:30">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:30">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="2:30">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="49"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="2:30">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:30">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
       <c r="O29" s="5"/>
       <c r="R29" s="8"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="49"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="59"/>
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="49"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="59"/>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="49"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="59"/>
       <c r="O35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
     <mergeCell ref="Z29:AD29"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="J28:N28"/>
@@ -7586,53 +12560,14 @@
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="J20:N20"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7671,19 +12606,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="2:16">
       <c r="B2" s="39" t="s">
@@ -7692,21 +12627,21 @@
       <c r="C2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="31" t="s">
@@ -7715,21 +12650,21 @@
       <c r="C3" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="31" t="s">
@@ -7738,21 +12673,21 @@
       <c r="C4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" ht="30">
       <c r="B5" s="37" t="s">
@@ -7761,21 +12696,21 @@
       <c r="C5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="31" t="s">
@@ -7784,21 +12719,21 @@
       <c r="C6" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="31" t="s">
@@ -7807,21 +12742,21 @@
       <c r="C7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="31" t="s">
@@ -7830,21 +12765,21 @@
       <c r="C8" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="31" t="s">
@@ -7853,21 +12788,21 @@
       <c r="C9" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="31" t="s">
@@ -7876,21 +12811,21 @@
       <c r="C10" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="31" t="s">
@@ -7899,21 +12834,21 @@
       <c r="C11" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="31" t="s">
@@ -7922,21 +12857,21 @@
       <c r="C12" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="31" t="s">
@@ -7945,21 +12880,21 @@
       <c r="C13" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="31" t="s">
@@ -7968,21 +12903,21 @@
       <c r="C14" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="31" t="s">
@@ -7991,21 +12926,21 @@
       <c r="C15" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="31" t="s">
@@ -8014,21 +12949,21 @@
       <c r="C16" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="31" t="s">
@@ -8037,21 +12972,21 @@
       <c r="C17" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="31" t="s">
@@ -8060,21 +12995,21 @@
       <c r="C18" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="31" t="s">
@@ -8083,21 +13018,21 @@
       <c r="C19" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="31" t="s">
@@ -8106,148 +13041,153 @@
       <c r="C20" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
     <mergeCell ref="D22:P22"/>
     <mergeCell ref="D11:P11"/>
     <mergeCell ref="D12:P12"/>
@@ -8260,16 +13200,11 @@
     <mergeCell ref="D19:P19"/>
     <mergeCell ref="D20:P20"/>
     <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8290,25 +13225,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10">
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="4:10">
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="4:10">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="4:10">
       <c r="D4" s="6" t="s">
@@ -8317,13 +13252,13 @@
       <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="4:10">
       <c r="D5" s="5">
@@ -8332,11 +13267,11 @@
       <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" s="5">
@@ -8345,13 +13280,13 @@
       <c r="E6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="5">
@@ -8360,11 +13295,11 @@
       <c r="E7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="5">
@@ -8373,190 +13308,187 @@
       <c r="E8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="4:21">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="4:21">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="4:21">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="4:21">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="4:21">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="4:21">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="4:21">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="4:21">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
     </row>
     <row r="25" spans="4:21">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
     </row>
     <row r="26" spans="4:21">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
@@ -8569,12 +13501,15 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8608,13 +13543,13 @@
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="31" t="s">
         <v>102</v>
       </c>
@@ -8623,12 +13558,12 @@
       <c r="A2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="18"/>
       <c r="G2" s="31"/>
     </row>
@@ -8649,38 +13584,38 @@
       <c r="A4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="28"/>
@@ -8722,10 +13657,10 @@
       <c r="C8" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="31"/>
       <c r="G8" s="35"/>
     </row>
@@ -8733,12 +13668,12 @@
       <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
@@ -8938,13 +13873,13 @@
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="31" t="s">
         <v>102</v>
       </c>
@@ -8953,10 +13888,10 @@
       <c r="A2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="18"/>
       <c r="G2" s="31"/>
     </row>
@@ -8977,23 +13912,23 @@
       <c r="A4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -9021,8 +13956,8 @@
       <c r="A8" s="29"/>
       <c r="B8" s="36"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="31"/>
       <c r="G8" s="35"/>
     </row>
@@ -9030,10 +13965,10 @@
       <c r="A9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
@@ -9171,152 +14106,226 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC95403-EA31-403A-8A44-C743DC61AC7C}">
-  <dimension ref="B2:V94"/>
+  <dimension ref="B1:AP150"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W143" sqref="W143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="21" max="21" width="9.140625" style="68"/>
+    <col min="21" max="21" width="9.140625" style="48"/>
+    <col min="24" max="24" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="41.7109375" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
-      <c r="V2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="28.5">
-      <c r="B3" s="66" t="s">
+    <row r="1" spans="2:24">
+      <c r="U1" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86"/>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="U2" s="87"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="88"/>
+    </row>
+    <row r="3" spans="2:24" ht="28.5">
+      <c r="B3" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="V3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="88"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1">
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="C6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:24">
       <c r="C7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:24">
       <c r="C8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:24">
       <c r="C9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="3:3">
+      <c r="V9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="V10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="V11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" ht="33.75">
+      <c r="V22" s="94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22">
       <c r="C29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:22">
       <c r="C30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:22">
       <c r="C32" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:38">
       <c r="C33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:38" ht="33.75">
       <c r="C35" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" ht="18">
-      <c r="C37" s="64" t="s">
+      <c r="V35" s="94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="3:38" ht="33.75">
+      <c r="C37" s="45" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="65" t="s">
+      <c r="V37" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="92"/>
+      <c r="AD37" s="92"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="92"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="92"/>
+      <c r="AL37" s="92"/>
+    </row>
+    <row r="38" spans="3:38">
+      <c r="C38" s="46" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="65" t="s">
+    <row r="39" spans="3:38">
+      <c r="C39" s="46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="65" t="s">
+    <row r="40" spans="3:38">
+      <c r="C40" s="46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="65" t="s">
+    <row r="41" spans="3:38">
+      <c r="C41" s="46" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="3:3" ht="18">
-      <c r="C42" s="64" t="s">
+    <row r="42" spans="3:38" ht="18">
+      <c r="C42" s="45" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="65" t="s">
+    <row r="43" spans="3:38">
+      <c r="C43" s="46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="65" t="s">
+    <row r="44" spans="3:38">
+      <c r="C44" s="46" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="65" t="s">
+    <row r="45" spans="3:38" ht="33.75">
+      <c r="C45" s="46" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="65"/>
-    </row>
-    <row r="49" spans="2:3" ht="28.5">
-      <c r="B49" s="66" t="s">
+      <c r="V45" s="94" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="3:38">
+      <c r="W46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="3:38">
+      <c r="C47" s="46"/>
+    </row>
+    <row r="49" spans="2:23" ht="28.5">
+      <c r="B49" s="93" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:23">
       <c r="C51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:23">
       <c r="C52" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:23">
       <c r="C53" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="W64" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="3:3">
@@ -9334,17 +14343,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
+    <row r="81" spans="3:23">
       <c r="C81" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="3:7">
+    <row r="82" spans="3:23">
       <c r="C82" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="3:23">
       <c r="C83" t="s">
         <v>233</v>
       </c>
@@ -9352,52 +14361,303 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="3:7" ht="18">
-      <c r="C85" s="64" t="s">
+    <row r="85" spans="3:23" ht="18">
+      <c r="C85" s="45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="3:7">
-      <c r="C86" s="65" t="s">
+    <row r="86" spans="3:23">
+      <c r="C86" s="46" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="65" t="s">
+    <row r="87" spans="3:23">
+      <c r="C87" s="46" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="65" t="s">
+    <row r="88" spans="3:23">
+      <c r="C88" s="46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="65" t="s">
+    <row r="89" spans="3:23">
+      <c r="C89" s="46" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="3:7" ht="18">
-      <c r="C91" s="64" t="s">
+    <row r="91" spans="3:23" ht="33.75">
+      <c r="C91" s="45" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="65" t="s">
+      <c r="V91" s="94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" ht="33.75">
+      <c r="C92" s="46" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="65" t="s">
+      <c r="W92" s="94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23">
+      <c r="C93" s="46" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="65" t="s">
+    <row r="94" spans="3:23">
+      <c r="C94" s="46" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="98" spans="23:42" ht="36">
+      <c r="W98" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="X98" s="95"/>
+    </row>
+    <row r="100" spans="23:42">
+      <c r="W100" s="96"/>
+      <c r="X100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="23:42">
+      <c r="X101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="23:42">
+      <c r="X102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="23:42">
+      <c r="W105" s="96"/>
+      <c r="X105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="23:42">
+      <c r="Y106" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z106" s="97"/>
+      <c r="AA106" s="97"/>
+      <c r="AB106" s="97"/>
+      <c r="AC106" s="97"/>
+      <c r="AD106" s="97"/>
+      <c r="AE106" s="97"/>
+      <c r="AF106" s="97"/>
+      <c r="AG106" s="97"/>
+      <c r="AH106" s="97"/>
+    </row>
+    <row r="107" spans="23:42">
+      <c r="Y107" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI107" s="98"/>
+      <c r="AJ107" s="98"/>
+      <c r="AK107" s="98"/>
+      <c r="AL107" s="98"/>
+      <c r="AM107" s="98"/>
+      <c r="AN107" s="98"/>
+      <c r="AO107" s="98"/>
+      <c r="AP107" s="98"/>
+    </row>
+    <row r="108" spans="23:42">
+      <c r="Y108" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z108" s="97"/>
+      <c r="AA108" s="97"/>
+      <c r="AB108" s="97"/>
+      <c r="AC108" s="97"/>
+      <c r="AD108" s="97"/>
+      <c r="AE108" s="97"/>
+      <c r="AF108" s="97"/>
+      <c r="AG108" s="97"/>
+      <c r="AH108" s="97"/>
+    </row>
+    <row r="111" spans="23:42">
+      <c r="W111" s="96"/>
+      <c r="X111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="23:42">
+      <c r="Y112" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z112" s="62"/>
+      <c r="AA112" s="62"/>
+      <c r="AB112" s="62"/>
+    </row>
+    <row r="113" spans="23:28">
+      <c r="Y113" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z113" s="62"/>
+      <c r="AA113" s="62"/>
+      <c r="AB113" s="62"/>
+    </row>
+    <row r="115" spans="23:28">
+      <c r="X115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="23:28" ht="36">
+      <c r="W120" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="X120" s="95"/>
+    </row>
+    <row r="122" spans="23:28">
+      <c r="W122" s="96"/>
+      <c r="X122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="23:28">
+      <c r="X123" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="23:28" ht="30">
+      <c r="W126" s="96"/>
+      <c r="X126" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y126" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z126" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA126" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB126" s="99" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="23:28">
+      <c r="X127" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y127" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z127" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA127" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB127" s="37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="23:28">
+      <c r="X128" s="100" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y128" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z128" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA128" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB128" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="23:28">
+      <c r="X129" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y129" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z129" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA129" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB129" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="23:28" ht="30">
+      <c r="X130" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y130" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z130" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA130" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB130" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="23:28">
+      <c r="X131" s="100" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y131" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z131" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA131" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB131" s="101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="23:28">
+      <c r="W134" s="96"/>
+      <c r="X134" s="102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="23:28">
+      <c r="X135" s="102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="24:24">
+      <c r="X150" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Y112:AB112"/>
+    <mergeCell ref="Y113:AB113"/>
+    <mergeCell ref="W120:X120"/>
+    <mergeCell ref="U1:X4"/>
+    <mergeCell ref="V37:AL37"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="Y106:AH106"/>
+    <mergeCell ref="Y108:AH108"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
